--- a/docs/Player Fields and Values.xlsx
+++ b/docs/Player Fields and Values.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Updater - WORKING COPY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gaming\madden_08_updater\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -4151,7 +4151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4695,8 +4695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F516" sqref="F516"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/docs/Player Fields and Values.xlsx
+++ b/docs/Player Fields and Values.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gaming\madden_08_updater\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Gaming\madden_08_updater\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="915" windowWidth="9240" windowHeight="3060"/>
+    <workbookView xWindow="360" yWindow="915" windowWidth="9240" windowHeight="3060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3992,9 +3992,6 @@
     <t>0, 1, 2, 3, 4</t>
   </si>
   <si>
-    <t>No difference seen in the player editor, or noticed in-game.</t>
-  </si>
-  <si>
     <t>Throwing Style</t>
   </si>
   <si>
@@ -4146,12 +4143,15 @@
   </si>
   <si>
     <t>BIG HITTER: (Just indicates exceptional TAK? No requirements, benefits named.) POS = Safeties only (17, 18)</t>
+  </si>
+  <si>
+    <t>Vast majority have 0. No difference seen in the player editor, or noticed in-game.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4482,6 +4482,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4517,6 +4534,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4692,24 +4726,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.73046875" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.73046875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.73046875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.73046875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="140.73046875" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="140.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>256</v>
       </c>
@@ -4729,7 +4761,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>257</v>
       </c>
@@ -4749,7 +4781,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" s="6" t="s">
         <v>120</v>
       </c>
@@ -4757,7 +4789,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>121</v>
       </c>
@@ -4765,7 +4797,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" s="6" t="s">
         <v>122</v>
       </c>
@@ -4773,7 +4805,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
         <v>123</v>
       </c>
@@ -4781,7 +4813,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="6" t="s">
         <v>124</v>
       </c>
@@ -4789,7 +4821,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="6" t="s">
         <v>125</v>
       </c>
@@ -4797,7 +4829,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="6" t="s">
         <v>126</v>
       </c>
@@ -4805,7 +4837,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="6" t="s">
         <v>128</v>
       </c>
@@ -4813,7 +4845,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
         <v>129</v>
       </c>
@@ -4821,7 +4853,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="6" t="s">
         <v>127</v>
       </c>
@@ -4829,7 +4861,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="6" t="s">
         <v>130</v>
       </c>
@@ -4837,7 +4869,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="6" t="s">
         <v>131</v>
       </c>
@@ -4845,7 +4877,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="6" t="s">
         <v>132</v>
       </c>
@@ -4853,7 +4885,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="6" t="s">
         <v>133</v>
       </c>
@@ -4861,7 +4893,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="6" t="s">
         <v>134</v>
       </c>
@@ -4869,7 +4901,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="6" t="s">
         <v>135</v>
       </c>
@@ -4877,7 +4909,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
         <v>136</v>
       </c>
@@ -4885,7 +4917,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="6" t="s">
         <v>137</v>
       </c>
@@ -4893,7 +4925,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="6" t="s">
         <v>138</v>
       </c>
@@ -4901,7 +4933,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="6" t="s">
         <v>139</v>
       </c>
@@ -4909,7 +4941,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="6" t="s">
         <v>140</v>
       </c>
@@ -4917,7 +4949,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="6" t="s">
         <v>141</v>
       </c>
@@ -4925,7 +4957,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="6" t="s">
         <v>142</v>
       </c>
@@ -4933,7 +4965,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="6" t="s">
         <v>143</v>
       </c>
@@ -4941,7 +4973,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="6" t="s">
         <v>144</v>
       </c>
@@ -4949,7 +4981,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="6" t="s">
         <v>145</v>
       </c>
@@ -4957,7 +4989,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="6" t="s">
         <v>146</v>
       </c>
@@ -4965,7 +4997,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30" s="6" t="s">
         <v>147</v>
       </c>
@@ -4973,7 +5005,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" s="6" t="s">
         <v>148</v>
       </c>
@@ -4981,7 +5013,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" s="6" t="s">
         <v>149</v>
       </c>
@@ -4989,7 +5021,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" s="6" t="s">
         <v>150</v>
       </c>
@@ -4997,7 +5029,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" s="6" t="s">
         <v>151</v>
       </c>
@@ -5005,7 +5037,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D35" s="6" t="s">
         <v>370</v>
       </c>
@@ -5013,7 +5045,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D36" s="6" t="s">
         <v>369</v>
       </c>
@@ -5021,7 +5053,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" s="6" t="s">
         <v>163</v>
       </c>
@@ -5029,7 +5061,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38" s="6" t="s">
         <v>242</v>
       </c>
@@ -5037,7 +5069,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D39" s="6" t="s">
         <v>368</v>
       </c>
@@ -5045,7 +5077,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40" s="6" t="s">
         <v>367</v>
       </c>
@@ -5053,7 +5085,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D41" s="6" t="s">
         <v>366</v>
       </c>
@@ -5061,7 +5093,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" s="6" t="s">
         <v>158</v>
       </c>
@@ -5069,7 +5101,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D43" s="6" t="s">
         <v>159</v>
       </c>
@@ -5077,7 +5109,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" s="6" t="s">
         <v>160</v>
       </c>
@@ -5085,7 +5117,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" s="6" t="s">
         <v>371</v>
       </c>
@@ -5093,7 +5125,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D46" s="6" t="s">
         <v>372</v>
       </c>
@@ -5101,7 +5133,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D47" s="6" t="s">
         <v>161</v>
       </c>
@@ -5109,7 +5141,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>258</v>
       </c>
@@ -5129,7 +5161,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -5141,7 +5173,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -5153,7 +5185,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -5165,7 +5197,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -5177,7 +5209,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -5189,7 +5221,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -5201,7 +5233,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -5213,7 +5245,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>253</v>
       </c>
@@ -5230,12 +5262,12 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D57" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" s="2" t="s">
         <v>884</v>
       </c>
@@ -5243,7 +5275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
         <v>885</v>
       </c>
@@ -5251,27 +5283,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D60" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D61" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D62" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D63" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>259</v>
       </c>
@@ -5291,7 +5323,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -5303,7 +5335,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -5315,7 +5347,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -5327,7 +5359,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -5339,7 +5371,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -5351,7 +5383,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -5363,7 +5395,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -5375,7 +5407,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>260</v>
       </c>
@@ -5392,12 +5424,12 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D73" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" s="2" t="s">
         <v>884</v>
       </c>
@@ -5405,7 +5437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
         <v>885</v>
       </c>
@@ -5413,27 +5445,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D76" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>261</v>
       </c>
@@ -5450,10 +5482,10 @@
         <v>1025</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>262</v>
       </c>
@@ -5473,7 +5505,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>263</v>
       </c>
@@ -5493,7 +5525,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>264</v>
       </c>
@@ -5513,23 +5545,23 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="29"/>
       <c r="C84" s="29" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D84" s="30"/>
       <c r="E84" s="30"/>
       <c r="F84" s="28" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" s="38" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>265</v>
       </c>
@@ -5549,7 +5581,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
         <v>266</v>
       </c>
@@ -5569,7 +5601,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>267</v>
       </c>
@@ -5589,11 +5621,11 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
@@ -5601,11 +5633,11 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="18"/>
@@ -5613,7 +5645,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="24" t="s">
         <v>268</v>
       </c>
@@ -5633,7 +5665,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
         <v>269</v>
       </c>
@@ -5653,7 +5685,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
         <v>270</v>
       </c>
@@ -5673,7 +5705,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>271</v>
       </c>
@@ -5693,7 +5725,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -5705,7 +5737,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -5717,7 +5749,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -5729,7 +5761,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -5741,7 +5773,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -5753,7 +5785,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -5765,7 +5797,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -5777,7 +5809,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -5789,7 +5821,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -5801,7 +5833,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -5813,7 +5845,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -5825,7 +5857,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>272</v>
       </c>
@@ -5842,10 +5874,10 @@
         <v>1033</v>
       </c>
       <c r="F106" s="35" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36"/>
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
@@ -5857,7 +5889,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="37"/>
       <c r="B108" s="38"/>
       <c r="C108" s="38"/>
@@ -5869,7 +5901,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>273</v>
       </c>
@@ -5889,7 +5921,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="7" t="s">
@@ -5900,7 +5932,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="7" t="s">
@@ -5911,7 +5943,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="7" t="s">
@@ -5922,7 +5954,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="113" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="7" t="s">
@@ -5933,7 +5965,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="114" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="7" t="s">
@@ -5944,7 +5976,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="115" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="7" t="s">
@@ -5955,7 +5987,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="116" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="7" t="s">
@@ -5966,7 +5998,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="117" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="7" t="s">
@@ -5977,7 +6009,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="118" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="7" t="s">
@@ -5988,7 +6020,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="119" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="7" t="s">
@@ -5999,7 +6031,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="120" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="7" t="s">
@@ -6010,7 +6042,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="121" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="7" t="s">
@@ -6021,7 +6053,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="122" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="7" t="s">
@@ -6032,7 +6064,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="123" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="7" t="s">
@@ -6043,7 +6075,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="124" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="7" t="s">
@@ -6054,7 +6086,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="7" t="s">
@@ -6065,7 +6097,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="126" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="7" t="s">
@@ -6076,7 +6108,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="127" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="7" t="s">
@@ -6087,7 +6119,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="128" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="7" t="s">
@@ -6098,7 +6130,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="7" t="s">
@@ -6109,7 +6141,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="7" t="s">
@@ -6120,7 +6152,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="7" t="s">
@@ -6131,7 +6163,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="7" t="s">
@@ -6142,7 +6174,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="7" t="s">
@@ -6153,7 +6185,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="7" t="s">
@@ -6164,7 +6196,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="7" t="s">
@@ -6175,7 +6207,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="7" t="s">
@@ -6186,7 +6218,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="7" t="s">
@@ -6197,7 +6229,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="7" t="s">
@@ -6208,7 +6240,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="7" t="s">
@@ -6219,7 +6251,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="7" t="s">
@@ -6230,7 +6262,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="7" t="s">
@@ -6241,7 +6273,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="18" t="s">
@@ -6252,7 +6284,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="35" t="s">
         <v>274</v>
       </c>
@@ -6272,7 +6304,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="38"/>
       <c r="C144" s="38"/>
       <c r="D144" s="39"/>
@@ -6281,7 +6313,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="23" t="s">
         <v>275</v>
       </c>
@@ -6301,7 +6333,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="27" t="s">
         <v>276</v>
       </c>
@@ -6321,7 +6353,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="23" t="s">
         <v>277</v>
       </c>
@@ -6341,7 +6373,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
         <v>278</v>
       </c>
@@ -6361,7 +6393,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="23" t="s">
         <v>279</v>
       </c>
@@ -6381,7 +6413,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
         <v>280</v>
       </c>
@@ -6401,7 +6433,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="23" t="s">
         <v>281</v>
       </c>
@@ -6421,7 +6453,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
         <v>282</v>
       </c>
@@ -6441,7 +6473,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
         <v>283</v>
       </c>
@@ -6461,7 +6493,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
         <v>284</v>
       </c>
@@ -6481,7 +6513,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
         <v>285</v>
       </c>
@@ -6501,7 +6533,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
         <v>286</v>
       </c>
@@ -6521,7 +6553,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="23" t="s">
         <v>287</v>
       </c>
@@ -6541,7 +6573,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="27" t="s">
         <v>288</v>
       </c>
@@ -6561,7 +6593,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
         <v>289</v>
       </c>
@@ -6581,7 +6613,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
         <v>290</v>
       </c>
@@ -6601,7 +6633,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
         <v>291</v>
       </c>
@@ -6621,7 +6653,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="27" t="s">
         <v>292</v>
       </c>
@@ -6641,7 +6673,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="23" t="s">
         <v>293</v>
       </c>
@@ -6661,7 +6693,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="35" t="s">
         <v>294</v>
       </c>
@@ -6681,7 +6713,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="38"/>
       <c r="C165" s="38"/>
       <c r="D165" s="39"/>
@@ -6690,7 +6722,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>295</v>
       </c>
@@ -6710,7 +6742,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
       <c r="D167" s="14" t="s">
@@ -6721,7 +6753,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="14" t="s">
@@ -6732,7 +6764,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
       <c r="D169" s="14" t="s">
@@ -6743,7 +6775,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
       <c r="D170" s="14" t="s">
@@ -6754,7 +6786,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
       <c r="D171" s="14" t="s">
@@ -6765,7 +6797,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
       <c r="D172" s="14" t="s">
@@ -6776,7 +6808,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
       <c r="D173" s="14" t="s">
@@ -6787,7 +6819,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="174" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
       <c r="D174" s="14" t="s">
@@ -6798,7 +6830,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="175" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
       <c r="D175" s="14" t="s">
@@ -6809,7 +6841,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
       <c r="D176" s="14" t="s">
@@ -6820,7 +6852,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
       <c r="D177" s="14" t="s">
@@ -6831,7 +6863,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
       <c r="D178" s="14" t="s">
@@ -6842,7 +6874,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="18" t="s">
@@ -6853,7 +6885,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="27" t="s">
         <v>296</v>
       </c>
@@ -6873,7 +6905,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="s">
         <v>297</v>
       </c>
@@ -6893,7 +6925,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
       <c r="D182" s="14" t="s">
@@ -6904,7 +6936,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
       <c r="D183" s="14" t="s">
@@ -6915,7 +6947,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
       <c r="D184" s="14" t="s">
@@ -6926,7 +6958,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
       <c r="D185" s="14" t="s">
@@ -6937,7 +6969,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
       <c r="D186" s="14" t="s">
@@ -6948,7 +6980,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
       <c r="D187" s="14" t="s">
@@ -6959,7 +6991,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
       <c r="D188" s="14" t="s">
@@ -6970,7 +7002,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
       <c r="D189" s="14" t="s">
@@ -6981,7 +7013,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="14" t="s">
@@ -6992,7 +7024,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
       <c r="D191" s="18" t="s">
@@ -7003,7 +7035,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="35" t="s">
         <v>298</v>
       </c>
@@ -7023,7 +7055,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B193" s="29"/>
       <c r="C193" s="29"/>
       <c r="D193" s="30" t="s">
@@ -7034,7 +7066,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B194" s="29"/>
       <c r="C194" s="29"/>
       <c r="D194" s="30" t="s">
@@ -7045,7 +7077,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="29"/>
       <c r="C195" s="29"/>
       <c r="D195" s="30" t="s">
@@ -7056,7 +7088,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="38"/>
       <c r="C196" s="38"/>
       <c r="D196" s="39" t="s">
@@ -7067,7 +7099,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
         <v>299</v>
       </c>
@@ -7087,7 +7119,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
       <c r="D198" s="18"/>
@@ -7096,7 +7128,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="35" t="s">
         <v>300</v>
       </c>
@@ -7116,7 +7148,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="29"/>
       <c r="C200" s="29"/>
       <c r="D200" s="30" t="s">
@@ -7127,7 +7159,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="29"/>
       <c r="C201" s="29"/>
       <c r="D201" s="30" t="s">
@@ -7138,7 +7170,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B202" s="29"/>
       <c r="C202" s="29"/>
       <c r="D202" s="30" t="s">
@@ -7149,7 +7181,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B203" s="29"/>
       <c r="C203" s="29"/>
       <c r="D203" s="30" t="s">
@@ -7160,7 +7192,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
       <c r="D204" s="30" t="s">
@@ -7171,7 +7203,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="29"/>
       <c r="C205" s="29"/>
       <c r="D205" s="30" t="s">
@@ -7182,7 +7214,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B206" s="29"/>
       <c r="C206" s="29"/>
       <c r="D206" s="30" t="s">
@@ -7193,7 +7225,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B207" s="29"/>
       <c r="C207" s="29"/>
       <c r="D207" s="30" t="s">
@@ -7204,7 +7236,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="38"/>
       <c r="C208" s="38"/>
       <c r="D208" s="39" t="s">
@@ -7215,7 +7247,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
         <v>301</v>
       </c>
@@ -7235,7 +7267,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
       <c r="D210" s="14" t="s">
@@ -7246,7 +7278,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="211" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B211" s="13"/>
       <c r="C211" s="13" t="s">
         <v>1119</v>
@@ -7259,7 +7291,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="13"/>
       <c r="C212" s="13" t="s">
         <v>1120</v>
@@ -7272,7 +7304,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
       <c r="D213" s="14" t="s">
@@ -7283,7 +7315,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
       <c r="D214" s="14" t="s">
@@ -7294,7 +7326,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
       <c r="D215" s="14" t="s">
@@ -7305,7 +7337,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
       <c r="D216" s="14" t="s">
@@ -7316,7 +7348,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
       <c r="D217" s="14" t="s">
@@ -7324,7 +7356,7 @@
       </c>
       <c r="E217" s="14"/>
     </row>
-    <row r="218" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
       <c r="D218" s="18" t="s">
@@ -7332,7 +7364,7 @@
       </c>
       <c r="E218" s="18"/>
     </row>
-    <row r="219" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="35" t="s">
         <v>302</v>
       </c>
@@ -7352,7 +7384,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="29"/>
       <c r="C220" s="29"/>
       <c r="D220" s="30" t="s">
@@ -7363,7 +7395,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="221" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B221" s="29"/>
       <c r="C221" s="29"/>
       <c r="D221" s="30" t="s">
@@ -7374,7 +7406,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="29"/>
       <c r="C222" s="29"/>
       <c r="D222" s="30" t="s">
@@ -7385,7 +7417,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B223" s="29"/>
       <c r="C223" s="29"/>
       <c r="D223" s="30" t="s">
@@ -7396,7 +7428,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B224" s="29"/>
       <c r="C224" s="29"/>
       <c r="D224" s="30" t="s">
@@ -7407,7 +7439,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B225" s="29"/>
       <c r="C225" s="29"/>
       <c r="D225" s="30" t="s">
@@ -7418,7 +7450,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B226" s="29"/>
       <c r="C226" s="29"/>
       <c r="D226" s="30" t="s">
@@ -7429,7 +7461,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B227" s="29"/>
       <c r="C227" s="29"/>
       <c r="D227" s="30" t="s">
@@ -7440,7 +7472,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B228" s="38"/>
       <c r="C228" s="38"/>
       <c r="D228" s="39" t="s">
@@ -7451,7 +7483,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
         <v>303</v>
       </c>
@@ -7468,7 +7500,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="230" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
       <c r="D230" s="14" t="s">
@@ -7476,7 +7508,7 @@
       </c>
       <c r="E230" s="14"/>
     </row>
-    <row r="231" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
       <c r="D231" s="14" t="s">
@@ -7484,7 +7516,7 @@
       </c>
       <c r="E231" s="14"/>
     </row>
-    <row r="232" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
       <c r="D232" s="14" t="s">
@@ -7492,7 +7524,7 @@
       </c>
       <c r="E232" s="14"/>
     </row>
-    <row r="233" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
       <c r="D233" s="14" t="s">
@@ -7500,7 +7532,7 @@
       </c>
       <c r="E233" s="14"/>
     </row>
-    <row r="234" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
       <c r="D234" s="14" t="s">
@@ -7508,7 +7540,7 @@
       </c>
       <c r="E234" s="14"/>
     </row>
-    <row r="235" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
       <c r="D235" s="14" t="s">
@@ -7516,7 +7548,7 @@
       </c>
       <c r="E235" s="14"/>
     </row>
-    <row r="236" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
       <c r="D236" s="14" t="s">
@@ -7524,7 +7556,7 @@
       </c>
       <c r="E236" s="14"/>
     </row>
-    <row r="237" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
       <c r="D237" s="14" t="s">
@@ -7532,7 +7564,7 @@
       </c>
       <c r="E237" s="14"/>
     </row>
-    <row r="238" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
       <c r="D238" s="18" t="s">
@@ -7540,7 +7572,7 @@
       </c>
       <c r="E238" s="18"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>304</v>
       </c>
@@ -7560,7 +7592,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D240" s="6" t="s">
         <v>120</v>
       </c>
@@ -7568,7 +7600,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D241" s="6" t="s">
         <v>121</v>
       </c>
@@ -7576,7 +7608,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D242" s="6" t="s">
         <v>122</v>
       </c>
@@ -7584,7 +7616,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D243" s="6" t="s">
         <v>123</v>
       </c>
@@ -7592,7 +7624,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D244" s="6" t="s">
         <v>124</v>
       </c>
@@ -7600,7 +7632,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D245" s="6" t="s">
         <v>125</v>
       </c>
@@ -7608,7 +7640,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D246" s="6" t="s">
         <v>126</v>
       </c>
@@ -7616,7 +7648,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D247" s="6" t="s">
         <v>128</v>
       </c>
@@ -7624,7 +7656,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D248" s="6" t="s">
         <v>129</v>
       </c>
@@ -7632,7 +7664,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D249" s="6" t="s">
         <v>127</v>
       </c>
@@ -7640,7 +7672,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D250" s="6" t="s">
         <v>130</v>
       </c>
@@ -7648,7 +7680,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D251" s="6" t="s">
         <v>131</v>
       </c>
@@ -7656,7 +7688,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D252" s="6" t="s">
         <v>132</v>
       </c>
@@ -7664,7 +7696,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D253" s="6" t="s">
         <v>133</v>
       </c>
@@ -7672,7 +7704,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D254" s="6" t="s">
         <v>134</v>
       </c>
@@ -7680,7 +7712,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D255" s="6" t="s">
         <v>135</v>
       </c>
@@ -7688,7 +7720,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D256" s="6" t="s">
         <v>136</v>
       </c>
@@ -7696,7 +7728,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D257" s="6" t="s">
         <v>137</v>
       </c>
@@ -7704,7 +7736,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D258" s="6" t="s">
         <v>138</v>
       </c>
@@ -7712,7 +7744,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D259" s="6" t="s">
         <v>139</v>
       </c>
@@ -7720,7 +7752,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D260" s="6" t="s">
         <v>140</v>
       </c>
@@ -7728,7 +7760,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D261" s="6" t="s">
         <v>141</v>
       </c>
@@ -7736,7 +7768,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D262" s="6" t="s">
         <v>142</v>
       </c>
@@ -7744,7 +7776,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D263" s="6" t="s">
         <v>143</v>
       </c>
@@ -7752,7 +7784,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D264" s="6" t="s">
         <v>144</v>
       </c>
@@ -7760,7 +7792,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D265" s="6" t="s">
         <v>145</v>
       </c>
@@ -7768,7 +7800,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D266" s="6" t="s">
         <v>146</v>
       </c>
@@ -7776,7 +7808,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D267" s="6" t="s">
         <v>147</v>
       </c>
@@ -7784,7 +7816,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D268" s="6" t="s">
         <v>148</v>
       </c>
@@ -7792,7 +7824,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D269" s="6" t="s">
         <v>149</v>
       </c>
@@ -7800,7 +7832,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D270" s="6" t="s">
         <v>150</v>
       </c>
@@ -7808,7 +7840,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D271" s="6" t="s">
         <v>151</v>
       </c>
@@ -7816,7 +7848,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D272" s="6" t="s">
         <v>370</v>
       </c>
@@ -7824,7 +7856,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D273" s="6" t="s">
         <v>369</v>
       </c>
@@ -7832,7 +7864,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D274" s="6" t="s">
         <v>163</v>
       </c>
@@ -7840,7 +7872,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D275" s="6" t="s">
         <v>242</v>
       </c>
@@ -7848,7 +7880,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D276" s="6" t="s">
         <v>368</v>
       </c>
@@ -7856,7 +7888,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D277" s="6" t="s">
         <v>367</v>
       </c>
@@ -7864,7 +7896,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D278" s="6" t="s">
         <v>366</v>
       </c>
@@ -7872,7 +7904,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D279" s="6" t="s">
         <v>158</v>
       </c>
@@ -7880,7 +7912,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D280" s="6" t="s">
         <v>159</v>
       </c>
@@ -7888,7 +7920,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D281" s="6" t="s">
         <v>160</v>
       </c>
@@ -7896,7 +7928,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D282" s="6" t="s">
         <v>371</v>
       </c>
@@ -7904,7 +7936,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D283" s="6" t="s">
         <v>372</v>
       </c>
@@ -7912,7 +7944,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D284" s="6" t="s">
         <v>161</v>
       </c>
@@ -7920,7 +7952,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D285" s="6" t="s">
         <v>374</v>
       </c>
@@ -7928,7 +7960,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D286" s="6" t="s">
         <v>375</v>
       </c>
@@ -7936,7 +7968,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D287" s="6" t="s">
         <v>164</v>
       </c>
@@ -7944,7 +7976,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D288" s="6" t="s">
         <v>376</v>
       </c>
@@ -7952,7 +7984,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D289" s="6" t="s">
         <v>377</v>
       </c>
@@ -7960,7 +7992,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D290" s="6" t="s">
         <v>378</v>
       </c>
@@ -7968,7 +8000,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D291" s="6" t="s">
         <v>379</v>
       </c>
@@ -7976,7 +8008,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D292" s="6" t="s">
         <v>380</v>
       </c>
@@ -7984,7 +8016,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D293" s="6" t="s">
         <v>381</v>
       </c>
@@ -7992,7 +8024,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D294" s="6" t="s">
         <v>165</v>
       </c>
@@ -8000,7 +8032,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D295" s="6" t="s">
         <v>382</v>
       </c>
@@ -8008,7 +8040,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D296" s="6" t="s">
         <v>383</v>
       </c>
@@ -8016,7 +8048,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D297" s="6" t="s">
         <v>384</v>
       </c>
@@ -8024,7 +8056,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D298" s="6" t="s">
         <v>385</v>
       </c>
@@ -8032,7 +8064,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D299" s="6" t="s">
         <v>166</v>
       </c>
@@ -8040,7 +8072,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D300" s="6" t="s">
         <v>386</v>
       </c>
@@ -8048,7 +8080,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D301" s="6" t="s">
         <v>387</v>
       </c>
@@ -8056,7 +8088,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D302" s="6" t="s">
         <v>388</v>
       </c>
@@ -8064,7 +8096,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D303" s="6" t="s">
         <v>389</v>
       </c>
@@ -8072,7 +8104,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D304" s="6" t="s">
         <v>390</v>
       </c>
@@ -8080,7 +8112,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D305" s="6" t="s">
         <v>391</v>
       </c>
@@ -8088,7 +8120,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D306" s="6" t="s">
         <v>392</v>
       </c>
@@ -8096,7 +8128,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D307" s="6" t="s">
         <v>393</v>
       </c>
@@ -8104,7 +8136,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D308" s="6" t="s">
         <v>394</v>
       </c>
@@ -8112,7 +8144,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D309" s="6" t="s">
         <v>395</v>
       </c>
@@ -8120,7 +8152,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D310" s="6" t="s">
         <v>396</v>
       </c>
@@ -8128,7 +8160,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D311" s="6" t="s">
         <v>397</v>
       </c>
@@ -8136,7 +8168,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D312" s="6" t="s">
         <v>398</v>
       </c>
@@ -8144,7 +8176,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D313" s="6" t="s">
         <v>399</v>
       </c>
@@ -8152,7 +8184,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D314" s="6" t="s">
         <v>167</v>
       </c>
@@ -8160,7 +8192,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D315" s="6" t="s">
         <v>400</v>
       </c>
@@ -8168,7 +8200,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D316" s="6" t="s">
         <v>401</v>
       </c>
@@ -8176,7 +8208,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D317" s="6" t="s">
         <v>402</v>
       </c>
@@ -8184,7 +8216,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D318" s="6" t="s">
         <v>403</v>
       </c>
@@ -8192,7 +8224,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D319" s="6" t="s">
         <v>168</v>
       </c>
@@ -8200,7 +8232,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D320" s="6" t="s">
         <v>404</v>
       </c>
@@ -8208,7 +8240,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D321" s="6" t="s">
         <v>405</v>
       </c>
@@ -8216,7 +8248,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D322" s="6" t="s">
         <v>406</v>
       </c>
@@ -8224,7 +8256,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D323" s="6" t="s">
         <v>407</v>
       </c>
@@ -8232,7 +8264,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D324" s="6" t="s">
         <v>408</v>
       </c>
@@ -8240,7 +8272,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D325" s="6" t="s">
         <v>409</v>
       </c>
@@ -8248,7 +8280,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D326" s="6" t="s">
         <v>410</v>
       </c>
@@ -8256,7 +8288,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D327" s="6" t="s">
         <v>411</v>
       </c>
@@ -8264,7 +8296,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D328" s="6" t="s">
         <v>412</v>
       </c>
@@ -8272,7 +8304,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D329" s="6" t="s">
         <v>413</v>
       </c>
@@ -8280,7 +8312,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D330" s="6" t="s">
         <v>414</v>
       </c>
@@ -8288,7 +8320,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D331" s="6" t="s">
         <v>415</v>
       </c>
@@ -8296,7 +8328,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D332" s="6" t="s">
         <v>416</v>
       </c>
@@ -8304,7 +8336,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D333" s="6" t="s">
         <v>417</v>
       </c>
@@ -8312,7 +8344,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D334" s="6" t="s">
         <v>418</v>
       </c>
@@ -8320,7 +8352,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D335" s="6" t="s">
         <v>419</v>
       </c>
@@ -8328,7 +8360,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D336" s="6" t="s">
         <v>420</v>
       </c>
@@ -8336,7 +8368,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D337" s="6" t="s">
         <v>421</v>
       </c>
@@ -8344,7 +8376,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D338" s="6" t="s">
         <v>422</v>
       </c>
@@ -8352,7 +8384,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D339" s="6" t="s">
         <v>423</v>
       </c>
@@ -8360,7 +8392,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D340" s="6" t="s">
         <v>424</v>
       </c>
@@ -8368,7 +8400,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D341" s="6" t="s">
         <v>425</v>
       </c>
@@ -8376,7 +8408,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D342" s="6" t="s">
         <v>426</v>
       </c>
@@ -8384,7 +8416,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D343" s="6" t="s">
         <v>427</v>
       </c>
@@ -8392,7 +8424,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D344" s="6" t="s">
         <v>428</v>
       </c>
@@ -8400,7 +8432,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D345" s="6" t="s">
         <v>429</v>
       </c>
@@ -8408,7 +8440,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D346" s="6" t="s">
         <v>430</v>
       </c>
@@ -8416,7 +8448,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D347" s="6" t="s">
         <v>431</v>
       </c>
@@ -8424,7 +8456,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D348" s="6" t="s">
         <v>432</v>
       </c>
@@ -8432,7 +8464,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D349" s="6" t="s">
         <v>433</v>
       </c>
@@ -8440,7 +8472,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D350" s="6" t="s">
         <v>434</v>
       </c>
@@ -8448,7 +8480,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D351" s="6" t="s">
         <v>435</v>
       </c>
@@ -8456,7 +8488,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D352" s="6" t="s">
         <v>436</v>
       </c>
@@ -8464,7 +8496,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D353" s="6" t="s">
         <v>437</v>
       </c>
@@ -8472,7 +8504,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D354" s="6" t="s">
         <v>438</v>
       </c>
@@ -8480,7 +8512,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D355" s="6" t="s">
         <v>439</v>
       </c>
@@ -8488,7 +8520,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D356" s="6" t="s">
         <v>440</v>
       </c>
@@ -8496,7 +8528,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D357" s="6" t="s">
         <v>441</v>
       </c>
@@ -8504,7 +8536,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D358" s="6" t="s">
         <v>442</v>
       </c>
@@ -8512,7 +8544,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D359" s="6" t="s">
         <v>443</v>
       </c>
@@ -8520,7 +8552,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D360" s="6" t="s">
         <v>444</v>
       </c>
@@ -8528,7 +8560,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D361" s="6" t="s">
         <v>445</v>
       </c>
@@ -8536,7 +8568,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D362" s="6" t="s">
         <v>446</v>
       </c>
@@ -8544,7 +8576,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D363" s="6" t="s">
         <v>447</v>
       </c>
@@ -8552,7 +8584,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D364" s="6" t="s">
         <v>448</v>
       </c>
@@ -8560,7 +8592,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="365" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D365" s="6" t="s">
         <v>449</v>
       </c>
@@ -8568,7 +8600,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="366" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D366" s="6" t="s">
         <v>450</v>
       </c>
@@ -8576,7 +8608,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="367" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D367" s="6" t="s">
         <v>451</v>
       </c>
@@ -8584,7 +8616,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="368" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D368" s="6" t="s">
         <v>452</v>
       </c>
@@ -8592,7 +8624,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="369" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D369" s="6" t="s">
         <v>453</v>
       </c>
@@ -8600,7 +8632,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="370" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D370" s="6" t="s">
         <v>454</v>
       </c>
@@ -8608,7 +8640,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="371" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D371" s="6" t="s">
         <v>455</v>
       </c>
@@ -8616,7 +8648,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="372" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D372" s="6" t="s">
         <v>456</v>
       </c>
@@ -8624,7 +8656,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="373" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D373" s="6" t="s">
         <v>457</v>
       </c>
@@ -8632,7 +8664,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="374" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D374" s="6" t="s">
         <v>458</v>
       </c>
@@ -8640,7 +8672,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="375" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D375" s="6" t="s">
         <v>459</v>
       </c>
@@ -8648,7 +8680,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="376" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D376" s="6" t="s">
         <v>460</v>
       </c>
@@ -8656,7 +8688,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="377" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D377" s="6" t="s">
         <v>461</v>
       </c>
@@ -8664,7 +8696,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="378" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D378" s="6" t="s">
         <v>462</v>
       </c>
@@ -8672,7 +8704,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="379" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D379" s="6" t="s">
         <v>463</v>
       </c>
@@ -8680,7 +8712,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="380" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D380" s="6" t="s">
         <v>464</v>
       </c>
@@ -8688,7 +8720,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="381" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D381" s="6" t="s">
         <v>465</v>
       </c>
@@ -8696,7 +8728,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="382" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D382" s="6" t="s">
         <v>466</v>
       </c>
@@ -8704,7 +8736,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="383" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D383" s="6" t="s">
         <v>467</v>
       </c>
@@ -8712,7 +8744,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D384" s="6" t="s">
         <v>468</v>
       </c>
@@ -8720,7 +8752,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D385" s="6" t="s">
         <v>469</v>
       </c>
@@ -8728,7 +8760,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D386" s="6" t="s">
         <v>470</v>
       </c>
@@ -8736,7 +8768,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D387" s="6" t="s">
         <v>471</v>
       </c>
@@ -8744,7 +8776,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D388" s="6" t="s">
         <v>472</v>
       </c>
@@ -8752,7 +8784,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D389" s="6" t="s">
         <v>473</v>
       </c>
@@ -8760,7 +8792,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D390" s="6" t="s">
         <v>474</v>
       </c>
@@ -8768,7 +8800,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D391" s="6" t="s">
         <v>475</v>
       </c>
@@ -8776,7 +8808,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D392" s="6" t="s">
         <v>476</v>
       </c>
@@ -8784,7 +8816,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D393" s="6" t="s">
         <v>477</v>
       </c>
@@ -8792,7 +8824,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D394" s="6" t="s">
         <v>478</v>
       </c>
@@ -8800,7 +8832,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D395" s="6" t="s">
         <v>479</v>
       </c>
@@ -8808,7 +8840,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D396" s="6" t="s">
         <v>480</v>
       </c>
@@ -8816,7 +8848,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D397" s="6" t="s">
         <v>481</v>
       </c>
@@ -8824,7 +8856,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D398" s="6" t="s">
         <v>482</v>
       </c>
@@ -8832,7 +8864,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D399" s="6" t="s">
         <v>483</v>
       </c>
@@ -8840,7 +8872,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="400" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D400" s="6" t="s">
         <v>484</v>
       </c>
@@ -8848,7 +8880,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="401" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D401" s="6" t="s">
         <v>485</v>
       </c>
@@ -8856,7 +8888,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D402" s="6" t="s">
         <v>486</v>
       </c>
@@ -8864,7 +8896,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="403" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="403" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D403" s="6" t="s">
         <v>487</v>
       </c>
@@ -8872,7 +8904,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="404" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="404" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D404" s="6" t="s">
         <v>488</v>
       </c>
@@ -8880,7 +8912,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="405" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="405" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D405" s="6" t="s">
         <v>489</v>
       </c>
@@ -8888,7 +8920,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="406" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="406" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D406" s="6" t="s">
         <v>490</v>
       </c>
@@ -8896,7 +8928,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="407" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="407" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D407" s="6" t="s">
         <v>491</v>
       </c>
@@ -8904,7 +8936,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="408" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="408" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D408" s="6" t="s">
         <v>492</v>
       </c>
@@ -8912,7 +8944,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="409" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="409" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D409" s="6" t="s">
         <v>493</v>
       </c>
@@ -8920,7 +8952,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="410" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="410" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D410" s="6" t="s">
         <v>494</v>
       </c>
@@ -8928,7 +8960,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="411" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="411" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D411" s="6" t="s">
         <v>495</v>
       </c>
@@ -8936,7 +8968,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="412" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="412" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D412" s="6" t="s">
         <v>496</v>
       </c>
@@ -8944,7 +8976,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="413" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="413" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D413" s="6" t="s">
         <v>497</v>
       </c>
@@ -8952,7 +8984,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="414" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="414" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D414" s="6" t="s">
         <v>498</v>
       </c>
@@ -8960,7 +8992,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="415" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="415" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D415" s="6" t="s">
         <v>499</v>
       </c>
@@ -8968,7 +9000,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="416" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="416" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D416" s="6" t="s">
         <v>500</v>
       </c>
@@ -8976,7 +9008,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="417" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="417" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D417" s="6" t="s">
         <v>501</v>
       </c>
@@ -8984,7 +9016,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="418" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="418" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D418" s="6" t="s">
         <v>502</v>
       </c>
@@ -8992,7 +9024,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="419" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="419" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D419" s="6" t="s">
         <v>503</v>
       </c>
@@ -9000,7 +9032,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="420" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="420" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D420" s="6" t="s">
         <v>504</v>
       </c>
@@ -9008,7 +9040,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="421" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="421" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D421" s="6" t="s">
         <v>505</v>
       </c>
@@ -9016,7 +9048,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="422" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="422" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D422" s="6" t="s">
         <v>506</v>
       </c>
@@ -9024,7 +9056,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="423" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="423" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D423" s="6" t="s">
         <v>507</v>
       </c>
@@ -9032,7 +9064,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="424" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="424" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D424" s="6" t="s">
         <v>508</v>
       </c>
@@ -9040,7 +9072,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="425" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="425" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D425" s="6" t="s">
         <v>509</v>
       </c>
@@ -9048,7 +9080,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="426" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="426" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D426" s="6" t="s">
         <v>510</v>
       </c>
@@ -9056,7 +9088,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="427" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="427" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D427" s="6" t="s">
         <v>511</v>
       </c>
@@ -9064,7 +9096,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="428" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="428" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D428" s="6" t="s">
         <v>512</v>
       </c>
@@ -9072,7 +9104,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="429" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="429" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D429" s="6" t="s">
         <v>513</v>
       </c>
@@ -9080,7 +9112,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="430" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="430" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D430" s="6" t="s">
         <v>514</v>
       </c>
@@ -9088,7 +9120,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="431" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="431" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D431" s="6" t="s">
         <v>515</v>
       </c>
@@ -9096,7 +9128,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="432" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="432" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D432" s="6" t="s">
         <v>516</v>
       </c>
@@ -9104,7 +9136,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="433" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="433" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D433" s="6" t="s">
         <v>517</v>
       </c>
@@ -9112,7 +9144,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="434" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="434" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D434" s="6" t="s">
         <v>518</v>
       </c>
@@ -9120,7 +9152,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="435" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="435" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D435" s="6" t="s">
         <v>519</v>
       </c>
@@ -9128,7 +9160,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="436" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="436" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D436" s="6" t="s">
         <v>520</v>
       </c>
@@ -9136,7 +9168,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="437" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="437" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D437" s="6" t="s">
         <v>521</v>
       </c>
@@ -9144,7 +9176,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="438" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="438" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D438" s="6" t="s">
         <v>522</v>
       </c>
@@ -9152,7 +9184,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="439" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="439" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D439" s="6" t="s">
         <v>523</v>
       </c>
@@ -9160,7 +9192,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="440" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="440" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D440" s="6" t="s">
         <v>524</v>
       </c>
@@ -9168,7 +9200,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="441" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="441" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D441" s="6" t="s">
         <v>525</v>
       </c>
@@ -9176,7 +9208,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="442" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="442" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D442" s="6" t="s">
         <v>526</v>
       </c>
@@ -9184,7 +9216,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="443" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="443" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D443" s="6" t="s">
         <v>527</v>
       </c>
@@ -9192,7 +9224,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="444" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="444" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D444" s="6" t="s">
         <v>528</v>
       </c>
@@ -9200,7 +9232,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="445" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="445" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D445" s="6" t="s">
         <v>529</v>
       </c>
@@ -9208,7 +9240,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="446" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="446" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D446" s="6" t="s">
         <v>530</v>
       </c>
@@ -9216,7 +9248,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="447" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="447" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D447" s="6" t="s">
         <v>531</v>
       </c>
@@ -9224,7 +9256,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="448" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="448" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D448" s="6" t="s">
         <v>532</v>
       </c>
@@ -9232,7 +9264,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="449" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="449" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D449" s="6" t="s">
         <v>533</v>
       </c>
@@ -9240,7 +9272,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="450" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="450" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D450" s="6" t="s">
         <v>534</v>
       </c>
@@ -9248,7 +9280,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="451" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="451" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D451" s="6" t="s">
         <v>535</v>
       </c>
@@ -9256,7 +9288,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="452" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="452" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D452" s="6" t="s">
         <v>536</v>
       </c>
@@ -9264,7 +9296,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="453" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="453" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D453" s="6" t="s">
         <v>537</v>
       </c>
@@ -9272,7 +9304,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="454" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="454" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D454" s="6" t="s">
         <v>538</v>
       </c>
@@ -9280,7 +9312,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="455" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="455" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D455" s="6" t="s">
         <v>539</v>
       </c>
@@ -9288,7 +9320,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="456" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="456" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D456" s="6" t="s">
         <v>540</v>
       </c>
@@ -9296,7 +9328,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="457" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="457" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D457" s="6" t="s">
         <v>541</v>
       </c>
@@ -9304,7 +9336,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="458" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="458" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D458" s="6" t="s">
         <v>542</v>
       </c>
@@ -9312,7 +9344,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="459" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="459" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D459" s="6" t="s">
         <v>543</v>
       </c>
@@ -9320,7 +9352,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="460" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="460" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D460" s="6" t="s">
         <v>544</v>
       </c>
@@ -9328,7 +9360,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="461" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="461" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D461" s="6" t="s">
         <v>545</v>
       </c>
@@ -9336,7 +9368,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="462" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="462" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D462" s="6" t="s">
         <v>546</v>
       </c>
@@ -9344,7 +9376,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="463" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="463" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D463" s="6" t="s">
         <v>547</v>
       </c>
@@ -9352,7 +9384,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="464" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="464" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D464" s="6" t="s">
         <v>548</v>
       </c>
@@ -9360,7 +9392,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="465" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="465" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D465" s="6" t="s">
         <v>549</v>
       </c>
@@ -9368,7 +9400,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="466" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="466" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D466" s="6" t="s">
         <v>550</v>
       </c>
@@ -9376,7 +9408,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="467" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="467" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D467" s="6" t="s">
         <v>551</v>
       </c>
@@ -9384,7 +9416,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="468" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="468" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D468" s="6" t="s">
         <v>552</v>
       </c>
@@ -9392,7 +9424,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="469" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="469" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D469" s="6" t="s">
         <v>553</v>
       </c>
@@ -9400,7 +9432,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="470" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="470" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D470" s="6" t="s">
         <v>554</v>
       </c>
@@ -9408,7 +9440,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="471" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="471" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D471" s="6" t="s">
         <v>555</v>
       </c>
@@ -9416,7 +9448,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="472" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="472" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D472" s="6" t="s">
         <v>556</v>
       </c>
@@ -9424,7 +9456,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="473" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="473" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D473" s="6" t="s">
         <v>557</v>
       </c>
@@ -9432,7 +9464,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="474" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="474" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D474" s="6" t="s">
         <v>558</v>
       </c>
@@ -9440,7 +9472,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="475" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="475" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D475" s="6" t="s">
         <v>559</v>
       </c>
@@ -9448,7 +9480,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="476" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="476" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D476" s="6" t="s">
         <v>560</v>
       </c>
@@ -9456,7 +9488,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="477" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="477" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D477" s="6" t="s">
         <v>561</v>
       </c>
@@ -9464,7 +9496,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="478" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="478" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D478" s="6" t="s">
         <v>562</v>
       </c>
@@ -9472,7 +9504,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="479" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="479" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D479" s="6" t="s">
         <v>563</v>
       </c>
@@ -9480,7 +9512,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="480" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="480" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D480" s="6" t="s">
         <v>564</v>
       </c>
@@ -9488,7 +9520,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="481" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="481" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D481" s="6" t="s">
         <v>565</v>
       </c>
@@ -9496,7 +9528,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="482" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="482" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D482" s="6" t="s">
         <v>566</v>
       </c>
@@ -9504,7 +9536,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="483" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="483" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D483" s="6" t="s">
         <v>567</v>
       </c>
@@ -9512,7 +9544,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="484" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="484" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D484" s="6" t="s">
         <v>568</v>
       </c>
@@ -9520,7 +9552,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="485" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="485" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D485" s="6" t="s">
         <v>569</v>
       </c>
@@ -9528,7 +9560,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="486" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="486" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D486" s="6" t="s">
         <v>570</v>
       </c>
@@ -9536,7 +9568,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="487" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="487" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D487" s="6" t="s">
         <v>571</v>
       </c>
@@ -9544,7 +9576,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="488" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="488" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D488" s="6" t="s">
         <v>572</v>
       </c>
@@ -9552,7 +9584,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="489" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="489" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D489" s="6" t="s">
         <v>573</v>
       </c>
@@ -9560,7 +9592,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="490" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="490" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D490" s="6" t="s">
         <v>574</v>
       </c>
@@ -9568,7 +9600,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="491" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="491" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D491" s="6" t="s">
         <v>575</v>
       </c>
@@ -9576,7 +9608,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="492" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="492" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D492" s="6" t="s">
         <v>576</v>
       </c>
@@ -9584,7 +9616,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="493" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="493" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D493" s="6" t="s">
         <v>577</v>
       </c>
@@ -9592,7 +9624,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="494" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="494" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D494" s="6" t="s">
         <v>578</v>
       </c>
@@ -9600,7 +9632,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="495" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="495" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D495" s="6" t="s">
         <v>579</v>
       </c>
@@ -9608,7 +9640,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="496" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="496" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D496" s="6" t="s">
         <v>580</v>
       </c>
@@ -9616,7 +9648,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="497" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="497" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D497" s="6" t="s">
         <v>581</v>
       </c>
@@ -9624,7 +9656,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="498" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="498" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D498" s="6" t="s">
         <v>582</v>
       </c>
@@ -9632,7 +9664,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="499" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="499" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D499" s="6" t="s">
         <v>583</v>
       </c>
@@ -9640,7 +9672,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="500" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="500" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D500" s="6" t="s">
         <v>584</v>
       </c>
@@ -9648,7 +9680,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="501" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="501" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D501" s="6" t="s">
         <v>585</v>
       </c>
@@ -9656,7 +9688,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="502" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="502" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D502" s="6" t="s">
         <v>586</v>
       </c>
@@ -9664,7 +9696,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="503" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="503" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D503" s="6" t="s">
         <v>587</v>
       </c>
@@ -9672,7 +9704,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="504" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="504" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D504" s="6" t="s">
         <v>588</v>
       </c>
@@ -9680,7 +9712,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="505" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="505" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D505" s="6" t="s">
         <v>589</v>
       </c>
@@ -9688,7 +9720,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="506" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="506" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D506" s="6" t="s">
         <v>590</v>
       </c>
@@ -9696,7 +9728,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="507" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="507" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D507" s="6" t="s">
         <v>591</v>
       </c>
@@ -9704,7 +9736,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="508" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="508" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D508" s="6" t="s">
         <v>592</v>
       </c>
@@ -9712,7 +9744,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="509" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="509" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D509" s="6" t="s">
         <v>593</v>
       </c>
@@ -9720,7 +9752,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="510" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="510" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D510" s="6" t="s">
         <v>594</v>
       </c>
@@ -9728,7 +9760,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="511" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="511" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D511" s="6" t="s">
         <v>595</v>
       </c>
@@ -9736,7 +9768,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="512" spans="4:6" x14ac:dyDescent="0.45">
+    <row r="512" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D512" s="6" t="s">
         <v>596</v>
       </c>
@@ -9744,7 +9776,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D513" s="6" t="s">
         <v>597</v>
       </c>
@@ -9752,7 +9784,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D514" s="6" t="s">
         <v>598</v>
       </c>
@@ -9760,7 +9792,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="515" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B515" s="38"/>
       <c r="C515" s="38"/>
       <c r="D515" s="39" t="s">
@@ -9771,7 +9803,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="516" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A516" s="11" t="s">
         <v>305</v>
       </c>
@@ -9791,7 +9823,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="517" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B517" s="13"/>
       <c r="C517" s="13"/>
       <c r="D517" s="14" t="s">
@@ -9802,7 +9834,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="518" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B518" s="13"/>
       <c r="C518" s="42"/>
       <c r="D518" s="14" t="s">
@@ -9813,7 +9845,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="519" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B519" s="13"/>
       <c r="C519" s="42"/>
       <c r="D519" s="14" t="s">
@@ -9824,7 +9856,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="520" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B520" s="13"/>
       <c r="C520" s="42"/>
       <c r="D520" s="14" t="s">
@@ -9835,7 +9867,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="521" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B521" s="13"/>
       <c r="C521" s="42"/>
       <c r="D521" s="14" t="s">
@@ -9846,7 +9878,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="522" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B522" s="13"/>
       <c r="C522" s="42"/>
       <c r="D522" s="14" t="s">
@@ -9857,7 +9889,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="523" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B523" s="13"/>
       <c r="C523" s="13"/>
       <c r="D523" s="14" t="s">
@@ -9868,7 +9900,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="524" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B524" s="13"/>
       <c r="C524" s="13"/>
       <c r="D524" s="14" t="s">
@@ -9879,7 +9911,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="525" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B525" s="13"/>
       <c r="C525" s="13"/>
       <c r="D525" s="14" t="s">
@@ -9890,7 +9922,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="526" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B526" s="13"/>
       <c r="C526" s="13"/>
       <c r="D526" s="14" t="s">
@@ -9901,7 +9933,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="527" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B527" s="13"/>
       <c r="C527" s="13"/>
       <c r="D527" s="14" t="s">
@@ -9912,7 +9944,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="528" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B528" s="13"/>
       <c r="C528" s="13"/>
       <c r="D528" s="14" t="s">
@@ -9923,7 +9955,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="529" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B529" s="13"/>
       <c r="C529" s="13"/>
       <c r="D529" s="14" t="s">
@@ -9934,7 +9966,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="530" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B530" s="13"/>
       <c r="C530" s="13"/>
       <c r="D530" s="14" t="s">
@@ -9945,7 +9977,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="531" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B531" s="13"/>
       <c r="C531" s="13"/>
       <c r="D531" s="14" t="s">
@@ -9956,7 +9988,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="532" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B532" s="13"/>
       <c r="C532" s="13"/>
       <c r="D532" s="14" t="s">
@@ -9967,7 +9999,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="533" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B533" s="13"/>
       <c r="C533" s="13"/>
       <c r="D533" s="14" t="s">
@@ -9978,7 +10010,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="534" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B534" s="13"/>
       <c r="C534" s="13"/>
       <c r="D534" s="14" t="s">
@@ -9989,7 +10021,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="535" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B535" s="13"/>
       <c r="C535" s="13"/>
       <c r="D535" s="14" t="s">
@@ -10000,7 +10032,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="536" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B536" s="13"/>
       <c r="C536" s="13"/>
       <c r="D536" s="14" t="s">
@@ -10011,7 +10043,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="537" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B537" s="13"/>
       <c r="C537" s="13"/>
       <c r="D537" s="14" t="s">
@@ -10019,10 +10051,10 @@
       </c>
       <c r="E537" s="14"/>
       <c r="F537" s="15" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="538" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="538" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B538" s="13"/>
       <c r="C538" s="13"/>
       <c r="D538" s="14" t="s">
@@ -10030,10 +10062,10 @@
       </c>
       <c r="E538" s="14"/>
       <c r="F538" s="15" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="539" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="539" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B539" s="13"/>
       <c r="C539" s="13"/>
       <c r="D539" s="14" t="s">
@@ -10041,10 +10073,10 @@
       </c>
       <c r="E539" s="14"/>
       <c r="F539" s="15" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="540" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="540" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B540" s="13"/>
       <c r="C540" s="13"/>
       <c r="D540" s="14" t="s">
@@ -10052,10 +10084,10 @@
       </c>
       <c r="E540" s="14"/>
       <c r="F540" s="15" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="541" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="541" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B541" s="13"/>
       <c r="C541" s="13"/>
       <c r="D541" s="14" t="s">
@@ -10063,10 +10095,10 @@
       </c>
       <c r="E541" s="14"/>
       <c r="F541" s="15" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="542" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="542" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B542" s="13"/>
       <c r="C542" s="13"/>
       <c r="D542" s="14" t="s">
@@ -10074,10 +10106,10 @@
       </c>
       <c r="E542" s="14"/>
       <c r="F542" s="15" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="543" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="543" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B543" s="13"/>
       <c r="C543" s="13"/>
       <c r="D543" s="14" t="s">
@@ -10085,10 +10117,10 @@
       </c>
       <c r="E543" s="14"/>
       <c r="F543" s="15" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="544" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="544" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B544" s="13"/>
       <c r="C544" s="13"/>
       <c r="D544" s="14" t="s">
@@ -10096,10 +10128,10 @@
       </c>
       <c r="E544" s="14"/>
       <c r="F544" s="15" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="545" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="545" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B545" s="13"/>
       <c r="C545" s="13"/>
       <c r="D545" s="14" t="s">
@@ -10107,10 +10139,10 @@
       </c>
       <c r="E545" s="14"/>
       <c r="F545" s="15" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="546" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="546" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B546" s="13"/>
       <c r="C546" s="13"/>
       <c r="D546" s="14" t="s">
@@ -10118,10 +10150,10 @@
       </c>
       <c r="E546" s="14"/>
       <c r="F546" s="15" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="547" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="547" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B547" s="13"/>
       <c r="C547" s="13"/>
       <c r="D547" s="14" t="s">
@@ -10129,10 +10161,10 @@
       </c>
       <c r="E547" s="14"/>
       <c r="F547" s="15" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="548" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="548" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B548" s="13"/>
       <c r="C548" s="13"/>
       <c r="D548" s="14" t="s">
@@ -10140,10 +10172,10 @@
       </c>
       <c r="E548" s="14"/>
       <c r="F548" s="15" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="549" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="549" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B549" s="13"/>
       <c r="C549" s="13"/>
       <c r="D549" s="14" t="s">
@@ -10151,10 +10183,10 @@
       </c>
       <c r="E549" s="14"/>
       <c r="F549" s="15" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="550" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="550" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B550" s="13"/>
       <c r="C550" s="13"/>
       <c r="D550" s="14" t="s">
@@ -10162,10 +10194,10 @@
       </c>
       <c r="E550" s="14"/>
       <c r="F550" s="15" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="551" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="551" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B551" s="13"/>
       <c r="C551" s="13"/>
       <c r="D551" s="14" t="s">
@@ -10173,10 +10205,10 @@
       </c>
       <c r="E551" s="14"/>
       <c r="F551" s="15" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="552" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="552" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B552" s="13"/>
       <c r="C552" s="13"/>
       <c r="D552" s="14" t="s">
@@ -10184,10 +10216,10 @@
       </c>
       <c r="E552" s="14"/>
       <c r="F552" s="15" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="553" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="553" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B553" s="13"/>
       <c r="C553" s="13"/>
       <c r="D553" s="14" t="s">
@@ -10195,10 +10227,10 @@
       </c>
       <c r="E553" s="14"/>
       <c r="F553" s="15" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="554" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="554" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B554" s="13"/>
       <c r="C554" s="13"/>
       <c r="D554" s="14" t="s">
@@ -10206,10 +10238,10 @@
       </c>
       <c r="E554" s="14"/>
       <c r="F554" s="15" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="555" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="555" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B555" s="13"/>
       <c r="C555" s="13"/>
       <c r="D555" s="14" t="s">
@@ -10217,10 +10249,10 @@
       </c>
       <c r="E555" s="14"/>
       <c r="F555" s="15" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="556" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="556" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B556" s="13"/>
       <c r="C556" s="13"/>
       <c r="D556" s="14" t="s">
@@ -10228,10 +10260,10 @@
       </c>
       <c r="E556" s="14"/>
       <c r="F556" s="15" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="557" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="557" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B557" s="13"/>
       <c r="C557" s="13"/>
       <c r="D557" s="14" t="s">
@@ -10239,10 +10271,10 @@
       </c>
       <c r="E557" s="14"/>
       <c r="F557" s="15" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="558" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="558" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B558" s="13"/>
       <c r="C558" s="13"/>
       <c r="D558" s="14" t="s">
@@ -10250,10 +10282,10 @@
       </c>
       <c r="E558" s="14"/>
       <c r="F558" s="15" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="559" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="559" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B559" s="13"/>
       <c r="C559" s="13"/>
       <c r="D559" s="14" t="s">
@@ -10264,7 +10296,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="560" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B560" s="13"/>
       <c r="C560" s="13"/>
       <c r="D560" s="14" t="s">
@@ -10275,7 +10307,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="561" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B561" s="17"/>
       <c r="C561" s="17"/>
       <c r="D561" s="18" t="s">
@@ -10286,7 +10318,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="562" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="27" t="s">
         <v>306</v>
       </c>
@@ -10303,10 +10335,10 @@
         <v>1040</v>
       </c>
       <c r="F562" s="27" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="563" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="11" t="s">
         <v>307</v>
       </c>
@@ -10326,7 +10358,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="564" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B564" s="13"/>
       <c r="C564" s="13"/>
       <c r="D564" s="14" t="s">
@@ -10337,7 +10369,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="565" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B565" s="13"/>
       <c r="C565" s="13"/>
       <c r="D565" s="14" t="s">
@@ -10348,7 +10380,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="566" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B566" s="13"/>
       <c r="C566" s="13"/>
       <c r="D566" s="14" t="s">
@@ -10359,7 +10391,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="567" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B567" s="13"/>
       <c r="C567" s="13"/>
       <c r="D567" s="14" t="s">
@@ -10370,7 +10402,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="568" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B568" s="13"/>
       <c r="C568" s="13"/>
       <c r="D568" s="14" t="s">
@@ -10381,7 +10413,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="569" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B569" s="17"/>
       <c r="C569" s="17"/>
       <c r="D569" s="18" t="s">
@@ -10392,7 +10424,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="570" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="35" t="s">
         <v>308</v>
       </c>
@@ -10409,7 +10441,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="571" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B571" s="29"/>
       <c r="C571" s="29"/>
       <c r="D571" s="30" t="s">
@@ -10417,7 +10449,7 @@
       </c>
       <c r="E571" s="30"/>
     </row>
-    <row r="572" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B572" s="29"/>
       <c r="C572" s="29"/>
       <c r="D572" s="30" t="s">
@@ -10425,7 +10457,7 @@
       </c>
       <c r="E572" s="30"/>
     </row>
-    <row r="573" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B573" s="29"/>
       <c r="C573" s="29"/>
       <c r="D573" s="30" t="s">
@@ -10433,7 +10465,7 @@
       </c>
       <c r="E573" s="30"/>
     </row>
-    <row r="574" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B574" s="29"/>
       <c r="C574" s="29"/>
       <c r="D574" s="30" t="s">
@@ -10441,7 +10473,7 @@
       </c>
       <c r="E574" s="30"/>
     </row>
-    <row r="575" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B575" s="29"/>
       <c r="C575" s="29"/>
       <c r="D575" s="30" t="s">
@@ -10449,7 +10481,7 @@
       </c>
       <c r="E575" s="30"/>
     </row>
-    <row r="576" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B576" s="38"/>
       <c r="C576" s="38"/>
       <c r="D576" s="39" t="s">
@@ -10457,7 +10489,7 @@
       </c>
       <c r="E576" s="39"/>
     </row>
-    <row r="577" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A577" s="11" t="s">
         <v>309</v>
       </c>
@@ -10477,7 +10509,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="578" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B578" s="13"/>
       <c r="C578" s="13"/>
       <c r="D578" s="14" t="s">
@@ -10488,7 +10520,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="579" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B579" s="13"/>
       <c r="C579" s="13"/>
       <c r="D579" s="14" t="s">
@@ -10499,7 +10531,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="580" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B580" s="13"/>
       <c r="C580" s="13"/>
       <c r="D580" s="14" t="s">
@@ -10510,7 +10542,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="581" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B581" s="13"/>
       <c r="C581" s="13"/>
       <c r="D581" s="14" t="s">
@@ -10521,7 +10553,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="582" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B582" s="13"/>
       <c r="C582" s="13"/>
       <c r="D582" s="14" t="s">
@@ -10532,7 +10564,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="583" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B583" s="13"/>
       <c r="C583" s="13"/>
       <c r="D583" s="14" t="s">
@@ -10543,7 +10575,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="584" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B584" s="17"/>
       <c r="C584" s="17"/>
       <c r="D584" s="18" t="s">
@@ -10554,7 +10586,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="585" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="35" t="s">
         <v>310</v>
       </c>
@@ -10574,7 +10606,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="586" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B586" s="29"/>
       <c r="C586" s="29"/>
       <c r="D586" s="30" t="s">
@@ -10585,7 +10617,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="587" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B587" s="29"/>
       <c r="C587" s="29"/>
       <c r="D587" s="30" t="s">
@@ -10596,7 +10628,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="588" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B588" s="29"/>
       <c r="C588" s="29"/>
       <c r="D588" s="30" t="s">
@@ -10607,7 +10639,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="589" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B589" s="38"/>
       <c r="C589" s="38"/>
       <c r="D589" s="39" t="s">
@@ -10618,7 +10650,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="590" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A590" s="11" t="s">
         <v>311</v>
       </c>
@@ -10635,7 +10667,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="591" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B591" s="13"/>
       <c r="C591" s="13"/>
       <c r="D591" s="14" t="s">
@@ -10643,7 +10675,7 @@
       </c>
       <c r="E591" s="14"/>
     </row>
-    <row r="592" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B592" s="13"/>
       <c r="C592" s="13"/>
       <c r="D592" s="14" t="s">
@@ -10651,7 +10683,7 @@
       </c>
       <c r="E592" s="14"/>
     </row>
-    <row r="593" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B593" s="13"/>
       <c r="C593" s="13"/>
       <c r="D593" s="14" t="s">
@@ -10659,7 +10691,7 @@
       </c>
       <c r="E593" s="14"/>
     </row>
-    <row r="594" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B594" s="13"/>
       <c r="C594" s="13"/>
       <c r="D594" s="14" t="s">
@@ -10667,7 +10699,7 @@
       </c>
       <c r="E594" s="14"/>
     </row>
-    <row r="595" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B595" s="13"/>
       <c r="C595" s="13"/>
       <c r="D595" s="14" t="s">
@@ -10678,7 +10710,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="596" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B596" s="13"/>
       <c r="C596" s="13"/>
       <c r="D596" s="14" t="s">
@@ -10686,7 +10718,7 @@
       </c>
       <c r="E596" s="14"/>
     </row>
-    <row r="597" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B597" s="13"/>
       <c r="C597" s="13"/>
       <c r="D597" s="14" t="s">
@@ -10694,7 +10726,7 @@
       </c>
       <c r="E597" s="14"/>
     </row>
-    <row r="598" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B598" s="13"/>
       <c r="C598" s="13"/>
       <c r="D598" s="14" t="s">
@@ -10702,7 +10734,7 @@
       </c>
       <c r="E598" s="14"/>
     </row>
-    <row r="599" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B599" s="13"/>
       <c r="C599" s="13"/>
       <c r="D599" s="14" t="s">
@@ -10710,7 +10742,7 @@
       </c>
       <c r="E599" s="14"/>
     </row>
-    <row r="600" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B600" s="17"/>
       <c r="C600" s="17"/>
       <c r="D600" s="18" t="s">
@@ -10721,7 +10753,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="601" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="27" t="s">
         <v>312</v>
       </c>
@@ -10741,7 +10773,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="602" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="23" t="s">
         <v>313</v>
       </c>
@@ -10761,7 +10793,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="603" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="27" t="s">
         <v>314</v>
       </c>
@@ -10778,7 +10810,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="604" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A604" s="11" t="s">
         <v>315</v>
       </c>
@@ -10798,7 +10830,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="605" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B605" s="13"/>
       <c r="C605" s="13"/>
       <c r="D605" s="14" t="s">
@@ -10809,7 +10841,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="606" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B606" s="13"/>
       <c r="C606" s="13"/>
       <c r="D606" s="14" t="s">
@@ -10820,7 +10852,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="607" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B607" s="13"/>
       <c r="C607" s="13"/>
       <c r="D607" s="14" t="s">
@@ -10831,7 +10863,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="608" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B608" s="13"/>
       <c r="C608" s="13"/>
       <c r="D608" s="14" t="s">
@@ -10842,7 +10874,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="609" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B609" s="13"/>
       <c r="C609" s="13"/>
       <c r="D609" s="14" t="s">
@@ -10853,7 +10885,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="610" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B610" s="13"/>
       <c r="C610" s="13"/>
       <c r="D610" s="14" t="s">
@@ -10864,7 +10896,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="611" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B611" s="13"/>
       <c r="C611" s="13"/>
       <c r="D611" s="14" t="s">
@@ -10875,7 +10907,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="612" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B612" s="13"/>
       <c r="C612" s="13"/>
       <c r="D612" s="14" t="s">
@@ -10886,7 +10918,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="613" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B613" s="13"/>
       <c r="C613" s="13"/>
       <c r="D613" s="14" t="s">
@@ -10897,7 +10929,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="614" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B614" s="13"/>
       <c r="C614" s="13"/>
       <c r="D614" s="14" t="s">
@@ -10908,7 +10940,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="615" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B615" s="13"/>
       <c r="C615" s="13"/>
       <c r="D615" s="14" t="s">
@@ -10919,7 +10951,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="616" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B616" s="13"/>
       <c r="C616" s="13"/>
       <c r="D616" s="14" t="s">
@@ -10930,7 +10962,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="617" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B617" s="13"/>
       <c r="C617" s="13"/>
       <c r="D617" s="14" t="s">
@@ -10941,7 +10973,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="618" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B618" s="13"/>
       <c r="C618" s="13"/>
       <c r="D618" s="14" t="s">
@@ -10952,7 +10984,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="619" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B619" s="13"/>
       <c r="C619" s="13"/>
       <c r="D619" s="14" t="s">
@@ -10963,7 +10995,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="620" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B620" s="13"/>
       <c r="C620" s="13"/>
       <c r="D620" s="14" t="s">
@@ -10974,7 +11006,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="621" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B621" s="13"/>
       <c r="C621" s="13"/>
       <c r="D621" s="14" t="s">
@@ -10985,7 +11017,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="622" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B622" s="13"/>
       <c r="C622" s="13"/>
       <c r="D622" s="14" t="s">
@@ -10996,7 +11028,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="623" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B623" s="13"/>
       <c r="C623" s="13"/>
       <c r="D623" s="14" t="s">
@@ -11007,7 +11039,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="624" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B624" s="13"/>
       <c r="C624" s="13"/>
       <c r="D624" s="14" t="s">
@@ -11018,7 +11050,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="625" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B625" s="13"/>
       <c r="C625" s="13"/>
       <c r="D625" s="14" t="s">
@@ -11029,7 +11061,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="626" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B626" s="13"/>
       <c r="C626" s="13"/>
       <c r="D626" s="14" t="s">
@@ -11040,7 +11072,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="627" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B627" s="13"/>
       <c r="C627" s="13"/>
       <c r="D627" s="14" t="s">
@@ -11051,7 +11083,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="628" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B628" s="13"/>
       <c r="C628" s="13"/>
       <c r="D628" s="14" t="s">
@@ -11062,7 +11094,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="629" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B629" s="13"/>
       <c r="C629" s="13"/>
       <c r="D629" s="14" t="s">
@@ -11073,7 +11105,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="630" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B630" s="13"/>
       <c r="C630" s="13"/>
       <c r="D630" s="14" t="s">
@@ -11084,7 +11116,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="631" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B631" s="13"/>
       <c r="C631" s="13"/>
       <c r="D631" s="14" t="s">
@@ -11095,7 +11127,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="632" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B632" s="13"/>
       <c r="C632" s="13"/>
       <c r="D632" s="14" t="s">
@@ -11106,7 +11138,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="633" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B633" s="13"/>
       <c r="C633" s="13"/>
       <c r="D633" s="14" t="s">
@@ -11117,7 +11149,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="634" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B634" s="13"/>
       <c r="C634" s="13"/>
       <c r="D634" s="14" t="s">
@@ -11128,7 +11160,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="635" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B635" s="13"/>
       <c r="C635" s="13"/>
       <c r="D635" s="14" t="s">
@@ -11139,7 +11171,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="636" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B636" s="13"/>
       <c r="C636" s="13"/>
       <c r="D636" s="14" t="s">
@@ -11150,7 +11182,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="637" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B637" s="13"/>
       <c r="C637" s="13"/>
       <c r="D637" s="14" t="s">
@@ -11161,7 +11193,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="638" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B638" s="13"/>
       <c r="C638" s="13"/>
       <c r="D638" s="14" t="s">
@@ -11172,7 +11204,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="639" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B639" s="13"/>
       <c r="C639" s="13"/>
       <c r="D639" s="14" t="s">
@@ -11183,7 +11215,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="640" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B640" s="13"/>
       <c r="C640" s="13"/>
       <c r="D640" s="14" t="s">
@@ -11194,7 +11226,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="641" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B641" s="13"/>
       <c r="C641" s="13"/>
       <c r="D641" s="14" t="s">
@@ -11205,7 +11237,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="642" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B642" s="13"/>
       <c r="C642" s="13"/>
       <c r="D642" s="14" t="s">
@@ -11216,7 +11248,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="643" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B643" s="13"/>
       <c r="C643" s="13"/>
       <c r="D643" s="14" t="s">
@@ -11227,7 +11259,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="644" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B644" s="13"/>
       <c r="C644" s="13"/>
       <c r="D644" s="14" t="s">
@@ -11238,7 +11270,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="645" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B645" s="13"/>
       <c r="C645" s="13"/>
       <c r="D645" s="14" t="s">
@@ -11249,7 +11281,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="646" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B646" s="13"/>
       <c r="C646" s="13"/>
       <c r="D646" s="14" t="s">
@@ -11260,7 +11292,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="647" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B647" s="13"/>
       <c r="C647" s="13"/>
       <c r="D647" s="14" t="s">
@@ -11271,7 +11303,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="648" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B648" s="13"/>
       <c r="C648" s="13"/>
       <c r="D648" s="14" t="s">
@@ -11282,7 +11314,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="649" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B649" s="13"/>
       <c r="C649" s="13"/>
       <c r="D649" s="14" t="s">
@@ -11293,7 +11325,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="650" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B650" s="13"/>
       <c r="C650" s="13"/>
       <c r="D650" s="14" t="s">
@@ -11304,7 +11336,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="651" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B651" s="13"/>
       <c r="C651" s="13"/>
       <c r="D651" s="14" t="s">
@@ -11315,7 +11347,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="652" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B652" s="13"/>
       <c r="C652" s="13"/>
       <c r="D652" s="14" t="s">
@@ -11326,7 +11358,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="653" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B653" s="13"/>
       <c r="C653" s="13"/>
       <c r="D653" s="14" t="s">
@@ -11337,7 +11369,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="654" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B654" s="13"/>
       <c r="C654" s="13"/>
       <c r="D654" s="14" t="s">
@@ -11348,7 +11380,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="655" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B655" s="13"/>
       <c r="C655" s="13"/>
       <c r="D655" s="14" t="s">
@@ -11359,7 +11391,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="656" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B656" s="13"/>
       <c r="C656" s="13"/>
       <c r="D656" s="14" t="s">
@@ -11370,7 +11402,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="657" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B657" s="13"/>
       <c r="C657" s="13"/>
       <c r="D657" s="14" t="s">
@@ -11381,7 +11413,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="658" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B658" s="13"/>
       <c r="C658" s="13"/>
       <c r="D658" s="14" t="s">
@@ -11392,7 +11424,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="659" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B659" s="13"/>
       <c r="C659" s="13"/>
       <c r="D659" s="14" t="s">
@@ -11403,7 +11435,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="660" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B660" s="13"/>
       <c r="C660" s="13"/>
       <c r="D660" s="14" t="s">
@@ -11414,7 +11446,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="661" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B661" s="13"/>
       <c r="C661" s="13"/>
       <c r="D661" s="14" t="s">
@@ -11425,7 +11457,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="662" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B662" s="13"/>
       <c r="C662" s="13"/>
       <c r="D662" s="14" t="s">
@@ -11436,7 +11468,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="663" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B663" s="13"/>
       <c r="C663" s="13"/>
       <c r="D663" s="14" t="s">
@@ -11447,7 +11479,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="664" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B664" s="13"/>
       <c r="C664" s="13"/>
       <c r="D664" s="14" t="s">
@@ -11458,7 +11490,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="665" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B665" s="13"/>
       <c r="C665" s="13"/>
       <c r="D665" s="14" t="s">
@@ -11469,7 +11501,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="666" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B666" s="17"/>
       <c r="C666" s="17"/>
       <c r="D666" s="18" t="s">
@@ -11480,7 +11512,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="667" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A667" s="43" t="s">
         <v>316</v>
       </c>
@@ -11497,26 +11529,26 @@
         <v>1032</v>
       </c>
       <c r="F667" s="43" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="668" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B668" s="46"/>
       <c r="C668" s="29" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D668" s="47"/>
       <c r="E668" s="47"/>
     </row>
-    <row r="669" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B669" s="48"/>
       <c r="C669" s="38" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D669" s="49"/>
       <c r="E669" s="49"/>
     </row>
-    <row r="670" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A670" s="15" t="s">
         <v>317</v>
       </c>
@@ -11536,10 +11568,10 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="671" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B671" s="13"/>
       <c r="C671" s="13" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D671" s="14"/>
       <c r="E671" s="14"/>
@@ -11547,16 +11579,16 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="672" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B672" s="17"/>
       <c r="C672" s="17" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D672" s="18"/>
       <c r="E672" s="18"/>
       <c r="F672" s="41"/>
     </row>
-    <row r="673" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A673" s="28" t="s">
         <v>318</v>
       </c>
@@ -11576,15 +11608,15 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="674" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B674" s="29"/>
       <c r="C674" s="29" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D674" s="30"/>
       <c r="E674" s="30"/>
     </row>
-    <row r="675" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B675" s="38"/>
       <c r="C675" s="38" t="s">
         <v>1237</v>
@@ -11592,7 +11624,7 @@
       <c r="D675" s="39"/>
       <c r="E675" s="39"/>
     </row>
-    <row r="676" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A676" s="19" t="s">
         <v>319</v>
       </c>
@@ -11609,10 +11641,10 @@
         <v>1040</v>
       </c>
       <c r="F676" s="19" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="677" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A677" s="27" t="s">
         <v>320</v>
       </c>
@@ -11623,7 +11655,7 @@
         <v>1235</v>
       </c>
       <c r="D677" s="26" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E677" s="26" t="s">
         <v>1029</v>
@@ -11632,7 +11664,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="678" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A678" s="23" t="s">
         <v>321</v>
       </c>
@@ -11652,7 +11684,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="679" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A679" s="27" t="s">
         <v>322</v>
       </c>
@@ -11672,7 +11704,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="680" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="23" t="s">
         <v>323</v>
       </c>
@@ -11689,10 +11721,10 @@
         <v>1025</v>
       </c>
       <c r="F680" s="23" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="681" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A681" s="27" t="s">
         <v>324</v>
       </c>
@@ -11712,7 +11744,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="682" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A682" s="23" t="s">
         <v>325</v>
       </c>
@@ -11729,10 +11761,10 @@
         <v>1037</v>
       </c>
       <c r="F682" s="23" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="683" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A683" s="27" t="s">
         <v>326</v>
       </c>
@@ -11752,7 +11784,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="684" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A684" s="23" t="s">
         <v>327</v>
       </c>
@@ -11760,7 +11792,7 @@
         <v>72</v>
       </c>
       <c r="C684" s="21" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D684" s="22" t="s">
         <v>1054</v>
@@ -11772,7 +11804,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="685" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A685" s="35" t="s">
         <v>328</v>
       </c>
@@ -11780,7 +11812,7 @@
         <v>73</v>
       </c>
       <c r="C685" s="33" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D685" s="34" t="s">
         <v>119</v>
@@ -11790,7 +11822,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="686" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B686" s="29"/>
       <c r="C686" s="29"/>
       <c r="D686" s="30" t="s">
@@ -11801,7 +11833,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="687" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B687" s="29"/>
       <c r="C687" s="29"/>
       <c r="D687" s="30" t="s">
@@ -11812,7 +11844,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="688" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B688" s="29"/>
       <c r="C688" s="29"/>
       <c r="D688" s="30" t="s">
@@ -11823,7 +11855,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="689" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B689" s="29"/>
       <c r="C689" s="29"/>
       <c r="D689" s="30" t="s">
@@ -11834,7 +11866,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="690" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B690" s="29"/>
       <c r="C690" s="29"/>
       <c r="D690" s="30" t="s">
@@ -11845,7 +11877,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="691" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B691" s="29"/>
       <c r="C691" s="29"/>
       <c r="D691" s="30" t="s">
@@ -11856,7 +11888,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="692" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B692" s="29"/>
       <c r="C692" s="29"/>
       <c r="D692" s="30" t="s">
@@ -11867,7 +11899,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="693" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B693" s="29"/>
       <c r="C693" s="29"/>
       <c r="D693" s="30" t="s">
@@ -11878,7 +11910,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="694" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B694" s="29"/>
       <c r="C694" s="29"/>
       <c r="D694" s="30" t="s">
@@ -11889,7 +11921,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="695" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:6" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B695" s="38"/>
       <c r="C695" s="38"/>
       <c r="D695" s="39" t="s">
@@ -11900,7 +11932,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="696" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A696" s="23" t="s">
         <v>329</v>
       </c>
@@ -11918,7 +11950,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="697" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A697" s="27" t="s">
         <v>330</v>
       </c>
@@ -11936,7 +11968,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="698" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A698" s="23" t="s">
         <v>331</v>
       </c>
@@ -11954,7 +11986,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="699" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A699" s="27" t="s">
         <v>332</v>
       </c>
@@ -11972,7 +12004,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="700" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A700" s="23" t="s">
         <v>333</v>
       </c>
@@ -11990,7 +12022,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="701" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A701" s="27" t="s">
         <v>334</v>
       </c>
@@ -12008,7 +12040,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="702" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A702" s="15" t="s">
         <v>335</v>
       </c>
@@ -12026,7 +12058,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="703" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B703" s="13"/>
       <c r="C703" s="13"/>
       <c r="D703" s="14" t="s">
@@ -12037,7 +12069,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="704" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B704" s="13"/>
       <c r="C704" s="13"/>
       <c r="D704" s="14" t="s">
@@ -12048,7 +12080,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="705" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B705" s="13"/>
       <c r="C705" s="13"/>
       <c r="D705" s="14" t="s">
@@ -12059,7 +12091,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="706" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B706" s="13"/>
       <c r="C706" s="13"/>
       <c r="D706" s="14" t="s">
@@ -12070,7 +12102,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="707" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B707" s="13"/>
       <c r="C707" s="13"/>
       <c r="D707" s="14" t="s">
@@ -12081,7 +12113,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="708" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B708" s="13"/>
       <c r="C708" s="13"/>
       <c r="D708" s="14" t="s">
@@ -12092,7 +12124,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="709" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B709" s="17"/>
       <c r="C709" s="17"/>
       <c r="D709" s="18" t="s">
@@ -12103,7 +12135,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="710" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A710" s="27" t="s">
         <v>336</v>
       </c>
@@ -12118,7 +12150,7 @@
       </c>
       <c r="E710" s="26"/>
     </row>
-    <row r="711" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A711" s="11" t="s">
         <v>337</v>
       </c>
@@ -12136,7 +12168,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="712" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B712" s="13"/>
       <c r="C712" s="13"/>
       <c r="D712" s="14" t="s">
@@ -12147,7 +12179,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="713" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B713" s="13"/>
       <c r="C713" s="13"/>
       <c r="D713" s="14" t="s">
@@ -12158,7 +12190,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="714" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B714" s="13"/>
       <c r="C714" s="13"/>
       <c r="D714" s="14" t="s">
@@ -12169,7 +12201,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="715" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B715" s="13"/>
       <c r="C715" s="13"/>
       <c r="D715" s="14" t="s">
@@ -12180,7 +12212,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="716" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B716" s="13"/>
       <c r="C716" s="13"/>
       <c r="D716" s="14" t="s">
@@ -12191,7 +12223,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="717" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B717" s="13"/>
       <c r="C717" s="13"/>
       <c r="D717" s="14" t="s">
@@ -12202,7 +12234,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="718" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B718" s="17"/>
       <c r="C718" s="17"/>
       <c r="D718" s="18" t="s">
@@ -12213,7 +12245,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="719" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A719" s="27" t="s">
         <v>338</v>
       </c>
@@ -12228,7 +12260,7 @@
       </c>
       <c r="E719" s="26"/>
     </row>
-    <row r="720" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A720" s="23" t="s">
         <v>339</v>
       </c>
@@ -12243,7 +12275,7 @@
       </c>
       <c r="E720" s="22"/>
     </row>
-    <row r="721" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A721" s="27" t="s">
         <v>340</v>
       </c>
@@ -12258,7 +12290,7 @@
       </c>
       <c r="E721" s="26"/>
     </row>
-    <row r="722" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A722" s="23" t="s">
         <v>341</v>
       </c>
@@ -12266,17 +12298,17 @@
         <v>86</v>
       </c>
       <c r="C722" s="21" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="D722" s="22" t="s">
         <v>1286</v>
       </c>
       <c r="E722" s="22"/>
       <c r="F722" s="23" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="723" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A723" s="27" t="s">
         <v>342</v>
       </c>
@@ -12291,7 +12323,7 @@
       </c>
       <c r="E723" s="26"/>
     </row>
-    <row r="724" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A724" s="23" t="s">
         <v>343</v>
       </c>
@@ -12306,7 +12338,7 @@
       </c>
       <c r="E724" s="22"/>
     </row>
-    <row r="725" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A725" s="44" t="s">
         <v>344</v>
       </c>
@@ -12321,7 +12353,7 @@
       </c>
       <c r="E725" s="49"/>
     </row>
-    <row r="726" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A726" s="23" t="s">
         <v>345</v>
       </c>
@@ -12336,7 +12368,7 @@
       </c>
       <c r="E726" s="22"/>
     </row>
-    <row r="727" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A727" s="31" t="s">
         <v>346</v>
       </c>
@@ -12351,7 +12383,7 @@
       </c>
       <c r="E727" s="52"/>
     </row>
-    <row r="728" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A728" s="23" t="s">
         <v>347</v>
       </c>
@@ -12369,7 +12401,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="729" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A729" s="31" t="s">
         <v>348</v>
       </c>
@@ -12387,7 +12419,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="730" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A730" s="11" t="s">
         <v>349</v>
       </c>
@@ -12405,7 +12437,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="731" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B731" s="13"/>
       <c r="C731" s="13"/>
       <c r="D731" s="14" t="s">
@@ -12416,7 +12448,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="732" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B732" s="13"/>
       <c r="C732" s="13"/>
       <c r="D732" s="14" t="s">
@@ -12427,7 +12459,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="733" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B733" s="13"/>
       <c r="C733" s="13"/>
       <c r="D733" s="14" t="s">
@@ -12438,7 +12470,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="734" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B734" s="13"/>
       <c r="C734" s="13"/>
       <c r="D734" s="14" t="s">
@@ -12449,7 +12481,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="735" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B735" s="13"/>
       <c r="C735" s="13"/>
       <c r="D735" s="14" t="s">
@@ -12460,7 +12492,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="736" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B736" s="13"/>
       <c r="C736" s="13"/>
       <c r="D736" s="14" t="s">
@@ -12471,7 +12503,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="737" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B737" s="13"/>
       <c r="C737" s="13"/>
       <c r="D737" s="14" t="s">
@@ -12482,7 +12514,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="738" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B738" s="13"/>
       <c r="C738" s="13"/>
       <c r="D738" s="14" t="s">
@@ -12493,7 +12525,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="739" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B739" s="13"/>
       <c r="C739" s="13"/>
       <c r="D739" s="14" t="s">
@@ -12504,7 +12536,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="740" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B740" s="13"/>
       <c r="C740" s="13"/>
       <c r="D740" s="14" t="s">
@@ -12515,7 +12547,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="741" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B741" s="13"/>
       <c r="C741" s="13"/>
       <c r="D741" s="14" t="s">
@@ -12526,7 +12558,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="742" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B742" s="13"/>
       <c r="C742" s="13"/>
       <c r="D742" s="14" t="s">
@@ -12537,7 +12569,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="743" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B743" s="13"/>
       <c r="C743" s="13"/>
       <c r="D743" s="14" t="s">
@@ -12548,7 +12580,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="744" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B744" s="13"/>
       <c r="C744" s="13"/>
       <c r="D744" s="14" t="s">
@@ -12559,7 +12591,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="745" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B745" s="13"/>
       <c r="C745" s="13"/>
       <c r="D745" s="14" t="s">
@@ -12570,7 +12602,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="746" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B746" s="13"/>
       <c r="C746" s="13"/>
       <c r="D746" s="14" t="s">
@@ -12581,7 +12613,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="747" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B747" s="13"/>
       <c r="C747" s="13"/>
       <c r="D747" s="14" t="s">
@@ -12592,7 +12624,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="748" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B748" s="13"/>
       <c r="C748" s="13"/>
       <c r="D748" s="14" t="s">
@@ -12603,7 +12635,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="749" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B749" s="13"/>
       <c r="C749" s="13"/>
       <c r="D749" s="14" t="s">
@@ -12614,7 +12646,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="750" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B750" s="17"/>
       <c r="C750" s="17"/>
       <c r="D750" s="18" t="s">
@@ -12625,7 +12657,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="751" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A751" s="31" t="s">
         <v>350</v>
       </c>
@@ -12640,10 +12672,10 @@
       </c>
       <c r="E751" s="52"/>
       <c r="F751" s="31" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="752" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A752" s="23" t="s">
         <v>351</v>
       </c>
@@ -12658,7 +12690,7 @@
       </c>
       <c r="E752" s="22"/>
     </row>
-    <row r="753" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A753" s="31" t="s">
         <v>352</v>
       </c>
@@ -12666,14 +12698,14 @@
         <v>97</v>
       </c>
       <c r="C753" s="51" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D753" s="52" t="s">
         <v>1302</v>
       </c>
       <c r="E753" s="52"/>
     </row>
-    <row r="754" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A754" s="23" t="s">
         <v>353</v>
       </c>
@@ -12688,7 +12720,7 @@
       </c>
       <c r="E754" s="22"/>
     </row>
-    <row r="755" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A755" s="31" t="s">
         <v>354</v>
       </c>
@@ -12703,7 +12735,7 @@
       </c>
       <c r="E755" s="52"/>
     </row>
-    <row r="756" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A756" s="11" t="s">
         <v>355</v>
       </c>
@@ -12721,23 +12753,23 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="757" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B757" s="13"/>
       <c r="C757" s="13" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="D757" s="14"/>
       <c r="E757" s="14"/>
     </row>
-    <row r="758" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B758" s="17"/>
       <c r="C758" s="17" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D758" s="18"/>
       <c r="E758" s="18"/>
     </row>
-    <row r="759" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A759" s="31" t="s">
         <v>356</v>
       </c>
@@ -12755,7 +12787,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="760" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A760" s="23" t="s">
         <v>357</v>
       </c>
@@ -12773,7 +12805,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="761" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A761" s="31" t="s">
         <v>358</v>
       </c>
@@ -12788,10 +12820,10 @@
       </c>
       <c r="E761" s="52"/>
       <c r="F761" s="31" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="762" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A762" s="23" t="s">
         <v>359</v>
       </c>
@@ -12802,14 +12834,14 @@
         <v>156</v>
       </c>
       <c r="D762" s="22" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E762" s="22"/>
       <c r="F762" s="23" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="763" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A763" s="31" t="s">
         <v>360</v>
       </c>
@@ -12824,7 +12856,7 @@
       </c>
       <c r="E763" s="52"/>
     </row>
-    <row r="764" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A764" s="23" t="s">
         <v>361</v>
       </c>
@@ -12842,7 +12874,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="765" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A765" s="31" t="s">
         <v>362</v>
       </c>
@@ -12860,7 +12892,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="766" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A766" s="23" t="s">
         <v>363</v>
       </c>
@@ -12875,10 +12907,10 @@
       </c>
       <c r="E766" s="22"/>
       <c r="F766" s="23" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="767" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A767" s="31" t="s">
         <v>364</v>
       </c>
@@ -12886,17 +12918,17 @@
         <v>109</v>
       </c>
       <c r="C767" s="51" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D767" s="52" t="s">
         <v>154</v>
       </c>
       <c r="E767" s="52"/>
       <c r="F767" s="31" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="768" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A768" s="23" t="s">
         <v>365</v>
       </c>
@@ -12904,14 +12936,14 @@
         <v>110</v>
       </c>
       <c r="C768" s="21" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D768" s="22" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E768" s="22"/>
       <c r="F768" s="23" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
   </sheetData>
@@ -12924,24 +12956,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Player Fields and Values.xlsx
+++ b/docs/Player Fields and Values.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="1376">
   <si>
     <t>Field</t>
   </si>
@@ -4146,6 +4146,9 @@
   </si>
   <si>
     <t>Vast majority have 0. No difference seen in the player editor, or noticed in-game.</t>
+  </si>
+  <si>
+    <t>SIGNED Int; -49 - 49</t>
   </si>
 </sst>
 </file>
@@ -4729,7 +4732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F768"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D239" sqref="D239"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11945,7 +11950,9 @@
       <c r="D696" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="E696" s="22"/>
+      <c r="E696" s="22" t="s">
+        <v>1029</v>
+      </c>
       <c r="F696" s="23" t="s">
         <v>1255</v>
       </c>
@@ -11963,7 +11970,9 @@
       <c r="D697" s="26" t="s">
         <v>1257</v>
       </c>
-      <c r="E697" s="26"/>
+      <c r="E697" s="26" t="s">
+        <v>1025</v>
+      </c>
       <c r="F697" s="27" t="s">
         <v>1258</v>
       </c>
@@ -11981,7 +11990,9 @@
       <c r="D698" s="22" t="s">
         <v>1260</v>
       </c>
-      <c r="E698" s="22"/>
+      <c r="E698" s="22" t="s">
+        <v>1025</v>
+      </c>
       <c r="F698" s="23" t="s">
         <v>1259</v>
       </c>
@@ -11999,7 +12010,9 @@
       <c r="D699" s="26" t="s">
         <v>1264</v>
       </c>
-      <c r="E699" s="26"/>
+      <c r="E699" s="26" t="s">
+        <v>1025</v>
+      </c>
       <c r="F699" s="27" t="s">
         <v>1262</v>
       </c>
@@ -12017,7 +12030,9 @@
       <c r="D700" s="22" t="s">
         <v>1265</v>
       </c>
-      <c r="E700" s="22"/>
+      <c r="E700" s="22" t="s">
+        <v>1025</v>
+      </c>
       <c r="F700" s="23" t="s">
         <v>1266</v>
       </c>
@@ -12035,7 +12050,9 @@
       <c r="D701" s="26" t="s">
         <v>1257</v>
       </c>
-      <c r="E701" s="26"/>
+      <c r="E701" s="26" t="s">
+        <v>1025</v>
+      </c>
       <c r="F701" s="27" t="s">
         <v>1268</v>
       </c>
@@ -12053,7 +12070,9 @@
       <c r="D702" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E702" s="14"/>
+      <c r="E702" s="14" t="s">
+        <v>1032</v>
+      </c>
       <c r="F702" s="15" t="s">
         <v>1270</v>
       </c>
@@ -12148,7 +12167,9 @@
       <c r="D710" s="26" t="s">
         <v>1279</v>
       </c>
-      <c r="E710" s="26"/>
+      <c r="E710" s="26" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="711" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A711" s="11" t="s">
@@ -12163,7 +12184,9 @@
       <c r="D711" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E711" s="10"/>
+      <c r="E711" s="10" t="s">
+        <v>1032</v>
+      </c>
       <c r="F711" s="11" t="s">
         <v>1270</v>
       </c>
@@ -12258,7 +12281,9 @@
       <c r="D719" s="26" t="s">
         <v>1279</v>
       </c>
-      <c r="E719" s="26"/>
+      <c r="E719" s="26" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="720" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A720" s="23" t="s">
@@ -12887,7 +12912,9 @@
       <c r="D765" s="52" t="s">
         <v>1320</v>
       </c>
-      <c r="E765" s="52"/>
+      <c r="E765" s="52" t="s">
+        <v>1375</v>
+      </c>
       <c r="F765" s="31" t="s">
         <v>1321</v>
       </c>

--- a/docs/Player Fields and Values.xlsx
+++ b/docs/Player Fields and Values.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="1620">
   <si>
     <t>Field</t>
   </si>
@@ -4149,6 +4149,738 @@
   </si>
   <si>
     <t>SIGNED Int; -49 - 49</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>QB OF THE FUTURE: Drafted in 1st round [not only], is 'prototype' NFL QB. Increases trade value by 25%. Loses role if another QB drafted in 1st rd, or not starting by 4th yr.</t>
+  </si>
+  <si>
+    <t>PRECISION PASSER: (Just indicates exceptional THA? No requirements, benefits named.)</t>
   </si>
 </sst>
 </file>
@@ -4730,11 +5462,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F768"/>
+  <dimension ref="A1:F1285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D239" sqref="D239"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9825,7 +10555,7 @@
         <v>1021</v>
       </c>
       <c r="F516" s="11" t="s">
-        <v>1192</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="517" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -10012,7 +10742,7 @@
       </c>
       <c r="E533" s="14"/>
       <c r="F533" s="15" t="s">
-        <v>1231</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="534" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -12971,6 +13701,2591 @@
       <c r="E768" s="22"/>
       <c r="F768" s="23" t="s">
         <v>1324</v>
+      </c>
+    </row>
+    <row r="769" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D769" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="770" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D770" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="771" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D771" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="772" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D772" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="773" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D773" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="774" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D774" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="775" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D775" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="776" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D776" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="777" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D777" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="778" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D778" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="779" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D779" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="780" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D780" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="781" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D781" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="782" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D782" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="783" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D783" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="784" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D784" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="785" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D785" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="786" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D786" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="787" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D787" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="788" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D788" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="789" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D789" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="790" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D790" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="791" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D791" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="792" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D792" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="793" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D793" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="794" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D794" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="795" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D795" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="796" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D796" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="797" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D797" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="798" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D798" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="799" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D799" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="800" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D800" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="801" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D801" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="802" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D802" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="803" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D803" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="804" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D804" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="805" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D805" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="806" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D806" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="807" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D807" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="808" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D808" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="809" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D809" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="810" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D810" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="811" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D811" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="812" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D812" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="813" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D813" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="814" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D814" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="815" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D815" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="816" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D816" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="817" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D817" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="818" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D818" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="819" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D819" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="820" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D820" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="821" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D821" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="822" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D822" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="823" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D823" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="824" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D824" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="825" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D825" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="826" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D826" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="827" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D827" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="828" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D828" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="829" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D829" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="830" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D830" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="831" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D831" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="832" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D832" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="833" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D833" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="834" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D834" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="835" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D835" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="836" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D836" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="837" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D837" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="838" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D838" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="839" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D839" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="840" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D840" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="841" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D841" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="842" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D842" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="843" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D843" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="844" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D844" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="845" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D845" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="846" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D846" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="847" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D847" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="848" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D848" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="849" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D849" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="850" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D850" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="851" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D851" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="852" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D852" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="853" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D853" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="854" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D854" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="855" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D855" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="856" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D856" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="857" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D857" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="858" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D858" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="859" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D859" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="860" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D860" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="861" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D861" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="862" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D862" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="863" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D863" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="864" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D864" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="865" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D865" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="866" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D866" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="867" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D867" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="868" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D868" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="869" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D869" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="870" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D870" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="871" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D871" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="872" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D872" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="873" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D873" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="874" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D874" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="875" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D875" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="876" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D876" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="877" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D877" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="878" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D878" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="879" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D879" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="880" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D880" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="881" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D881" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="882" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D882" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="883" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D883" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="884" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D884" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="885" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D885" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="886" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D886" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="887" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D887" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="888" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D888" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="889" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D889" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="890" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D890" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="891" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D891" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="892" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D892" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="893" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D893" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="894" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D894" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="895" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D895" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="896" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D896" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="897" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D897" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="898" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D898" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="899" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D899" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="900" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D900" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="901" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D901" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="902" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D902" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="903" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D903" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="904" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D904" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="905" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D905" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="906" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D906" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="907" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D907" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="908" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D908" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="909" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D909" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="910" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D910" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="911" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D911" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="912" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D912" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="913" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D913" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="914" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D914" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="915" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D915" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="916" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D916" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="917" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D917" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="918" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D918" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="919" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D919" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="920" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D920" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="921" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D921" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="922" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D922" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="923" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D923" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="924" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D924" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="925" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D925" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="926" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D926" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="927" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D927" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="928" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D928" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="929" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D929" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="930" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D930" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="931" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D931" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="932" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D932" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="933" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D933" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="934" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D934" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="935" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D935" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="936" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D936" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="937" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D937" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="938" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D938" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="939" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D939" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="940" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D940" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="941" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D941" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="942" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D942" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="943" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D943" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="944" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D944" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="945" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D945" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="946" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D946" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="947" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D947" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="948" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D948" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="949" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D949" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="950" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D950" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="951" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D951" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="952" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D952" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="953" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D953" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="954" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D954" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="955" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D955" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="956" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D956" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="957" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D957" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="958" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D958" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="959" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D959" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="960" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D960" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="961" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D961" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="962" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D962" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="963" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D963" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="964" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D964" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="965" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D965" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="966" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D966" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="967" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D967" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="968" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D968" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="969" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D969" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="970" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D970" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="971" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D971" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="972" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D972" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="973" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D973" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="974" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D974" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="975" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D975" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="976" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D976" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="977" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D977" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="978" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D978" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="979" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D979" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="980" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D980" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="981" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D981" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="982" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D982" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="983" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D983" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="984" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D984" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="985" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D985" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="986" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D986" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="987" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D987" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="988" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D988" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="989" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D989" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="990" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D990" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="991" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D991" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="992" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D992" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="993" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D993" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="994" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D994" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="995" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D995" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="996" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D996" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="997" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D997" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="998" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D998" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="999" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D999" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="1000" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1000" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="1001" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1001" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="1002" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1002" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="1003" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1003" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="1004" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1004" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="1005" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1005" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="1006" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1006" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="1007" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1007" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="1008" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1008" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="1009" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1009" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="1010" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1010" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="1011" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1011" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="1012" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1012" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="1013" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1013" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1014" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1014" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="1015" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1015" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="1016" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1016" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1017" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1017" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1018" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1018" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="1019" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1019" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="1020" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1020" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="1021" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1021" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1022" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1022" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="1023" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1023" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1024" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1024" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="1025" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1025" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1026" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1026" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="1027" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1027" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="1028" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1028" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1029" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1029" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1030" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1030" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="1031" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1031" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1032" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1032" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="1033" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1033" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1034" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1034" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="1035" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1035" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="1036" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1036" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="1037" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1037" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="1038" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1038" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1039" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1039" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1040" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1040" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="1041" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1041" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="1042" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1042" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="1043" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1043" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="1044" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1044" s="6" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1045" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1045" s="6" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1046" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1046" s="6" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1047" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1047" s="6" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1048" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048" s="6" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1049" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1049" s="6" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1050" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1050" s="6" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1051" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1051" s="6" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1052" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1052" s="6" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1053" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1053" s="6" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1054" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1054" s="6" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1055" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1055" s="6" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1056" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1056" s="6" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1057" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1057" s="6" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1058" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1058" s="6" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1059" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1059" s="6" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1060" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1060" s="6" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1061" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1061" s="6" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1062" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1062" s="6" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1063" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1063" s="6" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1064" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1064" s="6" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1065" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1065" s="6" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1066" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1066" s="6" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1067" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1067" s="6" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1068" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1068" s="6" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1069" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1069" s="6" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1070" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1070" s="6" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1071" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1071" s="6" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1072" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1072" s="6" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1073" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1073" s="6" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1074" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1074" s="6" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1075" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1075" s="6" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1076" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1076" s="6" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1077" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1077" s="6" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1078" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1078" s="6" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1079" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1079" s="6" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1080" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1080" s="6" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1081" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1081" s="6" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1082" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1082" s="6" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1083" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1083" s="6" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1084" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1084" s="6" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1085" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1085" s="6" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1086" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1086" s="6" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1087" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1087" s="6" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1088" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1088" s="6" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1089" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1089" s="6" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1090" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1090" s="6" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1091" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1091" s="6" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1092" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1092" s="6" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1093" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1093" s="6" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1094" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1094" s="6" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1095" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1095" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1096" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1096" s="6" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1097" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1097" s="6" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1098" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1098" s="6" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1099" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1099" s="6" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1100" s="6" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1101" s="6" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1102" s="6" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1103" s="6" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1104" s="6" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1105" s="6" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1106" s="6" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1107" s="6" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1108" s="6" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1109" s="6" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1110" s="6" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1111" s="6" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1112" s="6" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1113" s="6" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1114" s="6" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1115" s="6" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1116" s="6" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1117" s="6" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1118" s="6" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1119" s="6" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1120" s="6" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1121" s="6" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1122" s="6" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1123" s="6" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1124" s="6" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1125" s="6" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1126" s="6" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1127" s="6" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1128" s="6" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1129" s="6" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1130" s="6" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1131" s="6" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1132" s="6" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1133" s="6" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1134" s="6" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1135" s="6" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1136" s="6" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1137" s="6" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1138" s="6" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1139" s="6" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1140" s="6" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1141" s="6" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1142" s="6" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1143" s="6" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1144" s="6" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1145" s="6" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1146" s="6" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1147" s="6" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1148" s="6" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1149" s="6" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1150" s="6" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1151" s="6" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1152" s="6" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1153" s="6" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1154" s="6" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1155" s="6" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1156" s="6" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1157" s="6" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1158" s="6" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1159" s="6" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1160" s="6" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1161" s="6" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1162" s="6" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1163" s="6" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1164" s="6" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1165" s="6" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1166" s="6" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1167" s="6" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1168" s="6" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1169" s="6" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1170" s="6" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1171" s="6" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1172" s="6" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1173" s="6" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1174" s="6" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1175" s="6" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1176" s="6" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1177" s="6" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1178" s="6" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1179" s="6" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1180" s="6" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1181" s="6" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1182" s="6" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1183" s="6" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1184" s="6" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1185" s="6" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1186" s="6" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1187" s="6" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1188" s="6" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1189" s="6" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1190" s="6" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1191" s="6" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1192" s="6" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1193" s="6" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1194" s="6" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1195" s="6" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1196" s="6" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1197" s="6" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1198" s="6" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1199" s="6" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1200" s="6" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1201" s="6" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1202" s="6" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1203" s="6" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1204" s="6" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1205" s="6" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1206" s="6" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1207" s="6" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1208" s="6" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1209" s="6" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1210" s="6" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1211" s="6" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1212" s="6" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1213" s="6" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1214" s="6" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1215" s="6" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1216" s="6" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1217" s="6" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1218" s="6" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1219" s="6" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1220" s="6" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1221" s="6" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1222" s="6" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1223" s="6" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1224" s="6" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1225" s="6" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1226" s="6" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1227" s="6" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1228" s="6" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1229" s="6" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1230" s="6" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1231" s="6" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1232" s="6" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1233" s="6" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1234" s="6" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="1235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1235" s="6" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1236" s="6" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1237" s="6" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1238" s="6" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="1239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1239" s="6" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1240" s="6" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1241" s="6" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1242" s="6" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1243" s="6" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1244" s="6" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1245" s="6" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1246" s="6" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1247" s="6" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1248" s="6" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1249" s="6" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1250" s="6" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1251" s="6" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="1252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1252" s="6" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1253" s="6" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="1254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1254" s="6" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1255" s="6" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1256" s="6" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1257" s="6" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1258" s="6" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1259" s="6" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1260" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1260" s="6" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1261" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1261" s="6" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="1262" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1262" s="6" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1263" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1263" s="6" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1264" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1264" s="6" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1265" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1265" s="6" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1266" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1266" s="6" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1267" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1267" s="6" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1268" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1268" s="6" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1269" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1269" s="6" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1270" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1270" s="6" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1271" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1271" s="6" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="1272" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1272" s="6" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1273" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1273" s="6" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="1274" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1274" s="6" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="1275" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1275" s="6" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1276" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1276" s="6" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1277" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1277" s="6" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1278" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1278" s="6" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1279" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1279" s="6" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1280" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1280" s="6" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1281" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1281" s="6" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1282" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1282" s="6" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1283" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1283" s="6" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1284" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1284" s="6" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1285" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1285" s="6" t="s">
+        <v>1617</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Player Fields and Values.xlsx
+++ b/docs/Player Fields and Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Gaming\madden_08_updater\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD9C1AF-EE8C-4CCB-91C2-7389F1431509}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EEC734-7D4B-44A5-B860-1F5E66E22B3F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="915" windowWidth="9240" windowHeight="3060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="1620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="1621">
   <si>
     <t>Field</t>
   </si>
@@ -4882,6 +4882,9 @@
   </si>
   <si>
     <t>FEATURE BACK: (Just indicates exceptional SPD + ACC + AGI? No requirements, benefits named.) POS = HB only</t>
+  </si>
+  <si>
+    <t>TEAM MENTOR: Value +5%. Removed if player's OVR &lt; 86 and MOR &lt; 26 at end of season. Gives young position mates AWR +2, older ones AWR +1.</t>
   </si>
 </sst>
 </file>
@@ -5465,8 +5468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A511" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F527" sqref="F527"/>
+    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F532" sqref="F532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10613,7 +10616,7 @@
       </c>
       <c r="E521" s="14"/>
       <c r="F521" s="15" t="s">
-        <v>1230</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="522" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">

--- a/docs/Player Fields and Values.xlsx
+++ b/docs/Player Fields and Values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Gaming\madden_08_updater\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EEC734-7D4B-44A5-B860-1F5E66E22B3F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2326C600-64BE-4860-8DF9-B1F08A7BEFC6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="915" windowWidth="9240" windowHeight="3060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5468,8 +5468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F532" sqref="F532"/>
+    <sheetView tabSelected="1" topLeftCell="A514" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F544" sqref="F544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
